--- a/Reports/Report.xlsx
+++ b/Reports/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSkiLite\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302784E3-A826-40A4-9AA4-A1BFF57EFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45749636-9817-437E-9ED3-C5D7F9ABF35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28680" windowHeight="14160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28680" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТШР" sheetId="21" r:id="rId1"/>
@@ -1498,6 +1498,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1735,30 +1743,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,97 +1791,97 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,23 +1948,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2288,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42638512-D67E-4633-B448-355699D335A1}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,28 +2300,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="str">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2345,101 +2345,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="57" t="str">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="61" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="35"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="35"/>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,16 +2451,16 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,16 +2472,16 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,18 +2493,18 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,18 +2516,18 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,16 +2539,16 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,18 +2560,18 @@
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,16 +2583,16 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,16 +2604,16 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,593 +2637,593 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,63 +3284,63 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3531,9 +3531,9 @@
       <c r="K76" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
       <c r="O76" s="20"/>
       <c r="P76" s="6"/>
     </row>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5135B7ED-D69C-47EE-89DB-A9B98A8D500F}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,31 +3606,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61" t="str">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="str">
         <f>REPT(M5,1)</f>
         <v/>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="str">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3670,95 +3670,95 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="35"/>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="35"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="67" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="67" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
@@ -3769,16 +3769,16 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
@@ -3789,86 +3789,86 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="67" t="s">
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="69"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="70" t="s">
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="72"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
@@ -3878,78 +3878,78 @@
       <c r="C13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="77" t="s">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="35"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
@@ -3962,14 +3962,14 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="35"/>
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
@@ -3982,14 +3982,14 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="35"/>
       <c r="I18" s="39"/>
       <c r="J18" s="42"/>
@@ -4002,14 +4002,14 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
@@ -4075,264 +4075,264 @@
       <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84" t="s">
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85" t="s">
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="190"/>
-      <c r="S30" s="190"/>
-      <c r="T30" s="190"/>
-      <c r="U30" s="190"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92" t="s">
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="189"/>
-      <c r="R34" s="190"/>
-      <c r="S34" s="190"/>
-      <c r="T34" s="190"/>
-      <c r="U34" s="190"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
     </row>
     <row r="35" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="111"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="115"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
@@ -4340,21 +4340,21 @@
       <c r="U35" s="28"/>
     </row>
     <row r="36" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="114"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="118"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -4362,127 +4362,127 @@
       <c r="U36" s="28"/>
     </row>
     <row r="37" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="189"/>
-      <c r="R37" s="190"/>
-      <c r="S37" s="190"/>
-      <c r="T37" s="190"/>
-      <c r="U37" s="190"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
     </row>
     <row r="38" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="189"/>
-      <c r="R38" s="190"/>
-      <c r="S38" s="190"/>
-      <c r="T38" s="190"/>
-      <c r="U38" s="190"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
     </row>
     <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="120" t="s">
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="134"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="191"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="191"/>
-      <c r="O42" s="191"/>
-      <c r="P42" s="191"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="120" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -4491,15 +4491,15 @@
       <c r="P43" s="32"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="122"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
@@ -4508,19 +4508,19 @@
       <c r="P44" s="32"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="124" t="s">
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="126"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="129"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
@@ -4529,15 +4529,15 @@
       <c r="P45" s="31"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="129"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -4546,93 +4546,93 @@
       <c r="P46" s="31"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="120" t="s">
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
-      <c r="O47" s="192"/>
-      <c r="P47" s="192"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="136"/>
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="192"/>
-      <c r="M48" s="192"/>
-      <c r="N48" s="192"/>
-      <c r="O48" s="192"/>
-      <c r="P48" s="192"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+      <c r="P48" s="136"/>
     </row>
     <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="133" t="s">
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
+      <c r="P49" s="173"/>
     </row>
     <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="193"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
-      <c r="O50" s="193"/>
-      <c r="P50" s="193"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="172"/>
+      <c r="L50" s="173"/>
+      <c r="M50" s="173"/>
+      <c r="N50" s="173"/>
+      <c r="O50" s="173"/>
+      <c r="P50" s="173"/>
     </row>
     <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="147"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
@@ -4641,15 +4641,15 @@
       <c r="P51" s="31"/>
     </row>
     <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="144"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="150"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -4659,217 +4659,217 @@
     </row>
     <row r="53" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:16" ht="31.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="148" t="s">
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="149"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="149"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="150"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="156"/>
     </row>
     <row r="55" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="161"/>
-      <c r="M55" s="161"/>
-      <c r="N55" s="161"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="162"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="168"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="154"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="161"/>
-      <c r="M56" s="161"/>
-      <c r="N56" s="161"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="162"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
+      <c r="L56" s="167"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="167"/>
+      <c r="O56" s="167"/>
+      <c r="P56" s="168"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="154"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="161"/>
-      <c r="N57" s="161"/>
-      <c r="O57" s="161"/>
-      <c r="P57" s="162"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="167"/>
+      <c r="N57" s="167"/>
+      <c r="O57" s="167"/>
+      <c r="P57" s="168"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="154"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="161"/>
-      <c r="M58" s="161"/>
-      <c r="N58" s="161"/>
-      <c r="O58" s="161"/>
-      <c r="P58" s="162"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="167"/>
+      <c r="N58" s="167"/>
+      <c r="O58" s="167"/>
+      <c r="P58" s="168"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="161"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="161"/>
-      <c r="O59" s="161"/>
-      <c r="P59" s="162"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="167"/>
+      <c r="N59" s="167"/>
+      <c r="O59" s="167"/>
+      <c r="P59" s="168"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="154"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="161"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="161"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="162"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="168"/>
     </row>
     <row r="61" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="154"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="160"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="161"/>
-      <c r="M61" s="161"/>
-      <c r="N61" s="161"/>
-      <c r="O61" s="161"/>
-      <c r="P61" s="162"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="166"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
+      <c r="M61" s="167"/>
+      <c r="N61" s="167"/>
+      <c r="O61" s="167"/>
+      <c r="P61" s="168"/>
     </row>
     <row r="62" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="154"/>
-      <c r="C62" s="155"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="161"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="161"/>
-      <c r="P62" s="162"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
+      <c r="M62" s="167"/>
+      <c r="N62" s="167"/>
+      <c r="O62" s="167"/>
+      <c r="P62" s="168"/>
     </row>
     <row r="63" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="154"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="160"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="161"/>
-      <c r="M63" s="161"/>
-      <c r="N63" s="161"/>
-      <c r="O63" s="161"/>
-      <c r="P63" s="162"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="161"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="166"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="167"/>
+      <c r="M63" s="167"/>
+      <c r="N63" s="167"/>
+      <c r="O63" s="167"/>
+      <c r="P63" s="168"/>
     </row>
     <row r="64" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="157"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="163"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="164"/>
-      <c r="M64" s="164"/>
-      <c r="N64" s="164"/>
-      <c r="O64" s="164"/>
-      <c r="P64" s="165"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="170"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="170"/>
+      <c r="O64" s="170"/>
+      <c r="P64" s="171"/>
     </row>
     <row r="65" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="166"/>
-      <c r="M65" s="166"/>
-      <c r="N65" s="166"/>
-      <c r="O65" s="166"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="137"/>
+      <c r="O65" s="137"/>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="195"/>
-      <c r="C66" s="195"/>
-      <c r="D66" s="195"/>
-      <c r="E66" s="195"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="195"/>
-      <c r="H66" s="195"/>
-      <c r="I66" s="195"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
       <c r="K66" s="4"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
@@ -4878,14 +4878,14 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="195"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="195"/>
-      <c r="H67" s="195"/>
-      <c r="I67" s="195"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
       <c r="K67" s="4"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -4894,14 +4894,14 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="195"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="195"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
       <c r="K68" s="4"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
@@ -4911,14 +4911,14 @@
     </row>
     <row r="69" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="B69" s="195"/>
-      <c r="C69" s="195"/>
-      <c r="D69" s="195"/>
-      <c r="E69" s="195"/>
-      <c r="F69" s="195"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="195"/>
-      <c r="I69" s="195"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
       <c r="J69" s="25"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -4929,14 +4929,14 @@
     </row>
     <row r="70" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="194"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="195"/>
-      <c r="F70" s="195"/>
-      <c r="G70" s="195"/>
-      <c r="H70" s="195"/>
-      <c r="I70" s="195"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
       <c r="J70" s="25"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -4947,14 +4947,14 @@
     </row>
     <row r="71" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="195"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="195"/>
-      <c r="E71" s="195"/>
-      <c r="F71" s="195"/>
-      <c r="G71" s="195"/>
-      <c r="H71" s="195"/>
-      <c r="I71" s="195"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="25"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -4983,61 +4983,61 @@
     </row>
     <row r="73" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="167" t="s">
+      <c r="B73" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="168"/>
-      <c r="D73" s="169"/>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="170"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="173"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="174"/>
-      <c r="N73" s="174"/>
-      <c r="O73" s="174"/>
-      <c r="P73" s="174"/>
+      <c r="C73" s="175"/>
+      <c r="D73" s="176"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="180"/>
+      <c r="L73" s="181"/>
+      <c r="M73" s="181"/>
+      <c r="N73" s="181"/>
+      <c r="O73" s="181"/>
+      <c r="P73" s="181"/>
     </row>
     <row r="74" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="167" t="s">
+      <c r="B74" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="168"/>
-      <c r="D74" s="169"/>
-      <c r="E74" s="170"/>
-      <c r="F74" s="170"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="170"/>
-      <c r="I74" s="170"/>
-      <c r="J74" s="171"/>
-      <c r="K74" s="175"/>
-      <c r="L74" s="176"/>
-      <c r="M74" s="176"/>
-      <c r="N74" s="176"/>
-      <c r="O74" s="176"/>
-      <c r="P74" s="173"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="182"/>
+      <c r="L74" s="183"/>
+      <c r="M74" s="183"/>
+      <c r="N74" s="183"/>
+      <c r="O74" s="183"/>
+      <c r="P74" s="180"/>
     </row>
     <row r="75" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="177"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="179"/>
-      <c r="K75" s="175"/>
-      <c r="L75" s="176"/>
-      <c r="M75" s="176"/>
-      <c r="N75" s="176"/>
-      <c r="O75" s="176"/>
-      <c r="P75" s="173"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="185"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="186"/>
+      <c r="K75" s="182"/>
+      <c r="L75" s="183"/>
+      <c r="M75" s="183"/>
+      <c r="N75" s="183"/>
+      <c r="O75" s="183"/>
+      <c r="P75" s="180"/>
     </row>
     <row r="76" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
@@ -5059,14 +5059,14 @@
     </row>
     <row r="77" spans="1:16" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
-      <c r="E77" s="184"/>
-      <c r="F77" s="184"/>
-      <c r="G77" s="184"/>
+      <c r="C77" s="191"/>
+      <c r="D77" s="191"/>
+      <c r="E77" s="191"/>
+      <c r="F77" s="191"/>
+      <c r="G77" s="191"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
@@ -5078,495 +5078,495 @@
       <c r="P77" s="6"/>
     </row>
     <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="185" t="s">
+      <c r="B79" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
-      <c r="E79" s="185"/>
-      <c r="F79" s="185"/>
-      <c r="G79" s="185"/>
-      <c r="H79" s="185"/>
-      <c r="I79" s="185"/>
-      <c r="J79" s="185"/>
-      <c r="K79" s="185"/>
-      <c r="L79" s="185"/>
-      <c r="M79" s="186" t="str">
+      <c r="C79" s="192"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="192"/>
+      <c r="F79" s="192"/>
+      <c r="G79" s="192"/>
+      <c r="H79" s="192"/>
+      <c r="I79" s="192"/>
+      <c r="J79" s="192"/>
+      <c r="K79" s="192"/>
+      <c r="L79" s="192"/>
+      <c r="M79" s="193" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="N79" s="186"/>
-      <c r="O79" s="186"/>
-      <c r="P79" s="186"/>
+      <c r="N79" s="193"/>
+      <c r="O79" s="193"/>
+      <c r="P79" s="193"/>
     </row>
     <row r="80" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="185"/>
-      <c r="C80" s="185"/>
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="185"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="185"/>
-      <c r="I80" s="185"/>
-      <c r="J80" s="185"/>
-      <c r="K80" s="185"/>
-      <c r="L80" s="185"/>
-      <c r="M80" s="186"/>
-      <c r="N80" s="186"/>
-      <c r="O80" s="186"/>
-      <c r="P80" s="186"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="192"/>
+      <c r="D80" s="192"/>
+      <c r="E80" s="192"/>
+      <c r="F80" s="192"/>
+      <c r="G80" s="192"/>
+      <c r="H80" s="192"/>
+      <c r="I80" s="192"/>
+      <c r="J80" s="192"/>
+      <c r="K80" s="192"/>
+      <c r="L80" s="192"/>
+      <c r="M80" s="193"/>
+      <c r="N80" s="193"/>
+      <c r="O80" s="193"/>
+      <c r="P80" s="193"/>
     </row>
     <row r="81" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="185"/>
-      <c r="C81" s="185"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="185"/>
-      <c r="F81" s="185"/>
-      <c r="G81" s="185"/>
-      <c r="H81" s="185"/>
-      <c r="I81" s="185"/>
-      <c r="J81" s="185"/>
-      <c r="K81" s="185"/>
-      <c r="L81" s="185"/>
-      <c r="M81" s="186"/>
-      <c r="N81" s="186"/>
-      <c r="O81" s="186"/>
-      <c r="P81" s="186"/>
+      <c r="B81" s="192"/>
+      <c r="C81" s="192"/>
+      <c r="D81" s="192"/>
+      <c r="E81" s="192"/>
+      <c r="F81" s="192"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="192"/>
+      <c r="I81" s="192"/>
+      <c r="J81" s="192"/>
+      <c r="K81" s="192"/>
+      <c r="L81" s="192"/>
+      <c r="M81" s="193"/>
+      <c r="N81" s="193"/>
+      <c r="O81" s="193"/>
+      <c r="P81" s="193"/>
     </row>
     <row r="82" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="185"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
-      <c r="G82" s="185"/>
-      <c r="H82" s="185"/>
-      <c r="I82" s="185"/>
-      <c r="J82" s="185"/>
-      <c r="K82" s="185"/>
-      <c r="L82" s="185"/>
-      <c r="M82" s="186"/>
-      <c r="N82" s="186"/>
-      <c r="O82" s="186"/>
-      <c r="P82" s="186"/>
+      <c r="B82" s="192"/>
+      <c r="C82" s="192"/>
+      <c r="D82" s="192"/>
+      <c r="E82" s="192"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="192"/>
+      <c r="H82" s="192"/>
+      <c r="I82" s="192"/>
+      <c r="J82" s="192"/>
+      <c r="K82" s="192"/>
+      <c r="L82" s="192"/>
+      <c r="M82" s="193"/>
+      <c r="N82" s="193"/>
+      <c r="O82" s="193"/>
+      <c r="P82" s="193"/>
     </row>
     <row r="83" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B83" s="187" t="s">
+      <c r="B83" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
-      <c r="G83" s="187"/>
-      <c r="H83" s="187"/>
-      <c r="I83" s="187"/>
-      <c r="J83" s="187"/>
-      <c r="K83" s="187"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
+      <c r="F83" s="194"/>
+      <c r="G83" s="194"/>
+      <c r="H83" s="194"/>
+      <c r="I83" s="194"/>
+      <c r="J83" s="194"/>
+      <c r="K83" s="194"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="180"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="181"/>
-      <c r="G84" s="181"/>
-      <c r="H84" s="181"/>
-      <c r="I84" s="181"/>
-      <c r="J84" s="181"/>
-      <c r="K84" s="181"/>
-      <c r="L84" s="181"/>
-      <c r="M84" s="181"/>
-      <c r="N84" s="181"/>
-      <c r="O84" s="181"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
+      <c r="G84" s="188"/>
+      <c r="H84" s="188"/>
+      <c r="I84" s="188"/>
+      <c r="J84" s="188"/>
+      <c r="K84" s="188"/>
+      <c r="L84" s="188"/>
+      <c r="M84" s="188"/>
+      <c r="N84" s="188"/>
+      <c r="O84" s="188"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="180"/>
-      <c r="C85" s="181"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="181"/>
-      <c r="F85" s="181"/>
-      <c r="G85" s="181"/>
-      <c r="H85" s="181"/>
-      <c r="I85" s="181"/>
-      <c r="J85" s="181"/>
-      <c r="K85" s="181"/>
-      <c r="L85" s="181"/>
-      <c r="M85" s="181"/>
-      <c r="N85" s="181"/>
-      <c r="O85" s="181"/>
+      <c r="B85" s="187"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="188"/>
+      <c r="G85" s="188"/>
+      <c r="H85" s="188"/>
+      <c r="I85" s="188"/>
+      <c r="J85" s="188"/>
+      <c r="K85" s="188"/>
+      <c r="L85" s="188"/>
+      <c r="M85" s="188"/>
+      <c r="N85" s="188"/>
+      <c r="O85" s="188"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="180"/>
-      <c r="C86" s="181"/>
-      <c r="D86" s="181"/>
-      <c r="E86" s="181"/>
-      <c r="F86" s="181"/>
-      <c r="G86" s="181"/>
-      <c r="H86" s="181"/>
-      <c r="I86" s="181"/>
-      <c r="J86" s="181"/>
-      <c r="K86" s="181"/>
-      <c r="L86" s="181"/>
-      <c r="M86" s="181"/>
-      <c r="N86" s="181"/>
-      <c r="O86" s="181"/>
+      <c r="B86" s="187"/>
+      <c r="C86" s="188"/>
+      <c r="D86" s="188"/>
+      <c r="E86" s="188"/>
+      <c r="F86" s="188"/>
+      <c r="G86" s="188"/>
+      <c r="H86" s="188"/>
+      <c r="I86" s="188"/>
+      <c r="J86" s="188"/>
+      <c r="K86" s="188"/>
+      <c r="L86" s="188"/>
+      <c r="M86" s="188"/>
+      <c r="N86" s="188"/>
+      <c r="O86" s="188"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="180"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
-      <c r="G87" s="181"/>
-      <c r="H87" s="181"/>
-      <c r="I87" s="181"/>
-      <c r="J87" s="181"/>
-      <c r="K87" s="181"/>
-      <c r="L87" s="181"/>
-      <c r="M87" s="181"/>
-      <c r="N87" s="181"/>
-      <c r="O87" s="181"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="188"/>
+      <c r="D87" s="188"/>
+      <c r="E87" s="188"/>
+      <c r="F87" s="188"/>
+      <c r="G87" s="188"/>
+      <c r="H87" s="188"/>
+      <c r="I87" s="188"/>
+      <c r="J87" s="188"/>
+      <c r="K87" s="188"/>
+      <c r="L87" s="188"/>
+      <c r="M87" s="188"/>
+      <c r="N87" s="188"/>
+      <c r="O87" s="188"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="180"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
-      <c r="G88" s="181"/>
-      <c r="H88" s="181"/>
-      <c r="I88" s="181"/>
-      <c r="J88" s="181"/>
-      <c r="K88" s="181"/>
-      <c r="L88" s="181"/>
-      <c r="M88" s="181"/>
-      <c r="N88" s="181"/>
-      <c r="O88" s="181"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+      <c r="G88" s="188"/>
+      <c r="H88" s="188"/>
+      <c r="I88" s="188"/>
+      <c r="J88" s="188"/>
+      <c r="K88" s="188"/>
+      <c r="L88" s="188"/>
+      <c r="M88" s="188"/>
+      <c r="N88" s="188"/>
+      <c r="O88" s="188"/>
       <c r="P88" s="30"/>
       <c r="Q88" s="30"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
-      <c r="E89" s="181"/>
-      <c r="F89" s="181"/>
-      <c r="G89" s="181"/>
-      <c r="H89" s="181"/>
-      <c r="I89" s="181"/>
-      <c r="J89" s="181"/>
-      <c r="K89" s="181"/>
-      <c r="L89" s="181"/>
-      <c r="M89" s="181"/>
-      <c r="N89" s="181"/>
-      <c r="O89" s="181"/>
+      <c r="B89" s="187"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="188"/>
+      <c r="F89" s="188"/>
+      <c r="G89" s="188"/>
+      <c r="H89" s="188"/>
+      <c r="I89" s="188"/>
+      <c r="J89" s="188"/>
+      <c r="K89" s="188"/>
+      <c r="L89" s="188"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="188"/>
+      <c r="O89" s="188"/>
       <c r="P89" s="30"/>
       <c r="Q89" s="30"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="180"/>
-      <c r="C90" s="181"/>
-      <c r="D90" s="181"/>
-      <c r="E90" s="181"/>
-      <c r="F90" s="181"/>
-      <c r="G90" s="181"/>
-      <c r="H90" s="181"/>
-      <c r="I90" s="181"/>
-      <c r="J90" s="181"/>
-      <c r="K90" s="181"/>
-      <c r="L90" s="181"/>
-      <c r="M90" s="181"/>
-      <c r="N90" s="181"/>
-      <c r="O90" s="181"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="188"/>
+      <c r="E90" s="188"/>
+      <c r="F90" s="188"/>
+      <c r="G90" s="188"/>
+      <c r="H90" s="188"/>
+      <c r="I90" s="188"/>
+      <c r="J90" s="188"/>
+      <c r="K90" s="188"/>
+      <c r="L90" s="188"/>
+      <c r="M90" s="188"/>
+      <c r="N90" s="188"/>
+      <c r="O90" s="188"/>
       <c r="P90" s="30"/>
       <c r="Q90" s="30"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="180"/>
-      <c r="C91" s="181"/>
-      <c r="D91" s="181"/>
-      <c r="E91" s="181"/>
-      <c r="F91" s="181"/>
-      <c r="G91" s="181"/>
-      <c r="H91" s="181"/>
-      <c r="I91" s="181"/>
-      <c r="J91" s="181"/>
-      <c r="K91" s="181"/>
-      <c r="L91" s="181"/>
-      <c r="M91" s="181"/>
-      <c r="N91" s="181"/>
-      <c r="O91" s="181"/>
+      <c r="B91" s="187"/>
+      <c r="C91" s="188"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="188"/>
+      <c r="F91" s="188"/>
+      <c r="G91" s="188"/>
+      <c r="H91" s="188"/>
+      <c r="I91" s="188"/>
+      <c r="J91" s="188"/>
+      <c r="K91" s="188"/>
+      <c r="L91" s="188"/>
+      <c r="M91" s="188"/>
+      <c r="N91" s="188"/>
+      <c r="O91" s="188"/>
       <c r="P91" s="30"/>
       <c r="Q91" s="30"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="180"/>
-      <c r="C92" s="181"/>
-      <c r="D92" s="181"/>
-      <c r="E92" s="181"/>
-      <c r="F92" s="181"/>
-      <c r="G92" s="181"/>
-      <c r="H92" s="181"/>
-      <c r="I92" s="181"/>
-      <c r="J92" s="181"/>
-      <c r="K92" s="181"/>
-      <c r="L92" s="181"/>
-      <c r="M92" s="181"/>
-      <c r="N92" s="181"/>
-      <c r="O92" s="181"/>
+      <c r="B92" s="187"/>
+      <c r="C92" s="188"/>
+      <c r="D92" s="188"/>
+      <c r="E92" s="188"/>
+      <c r="F92" s="188"/>
+      <c r="G92" s="188"/>
+      <c r="H92" s="188"/>
+      <c r="I92" s="188"/>
+      <c r="J92" s="188"/>
+      <c r="K92" s="188"/>
+      <c r="L92" s="188"/>
+      <c r="M92" s="188"/>
+      <c r="N92" s="188"/>
+      <c r="O92" s="188"/>
       <c r="P92" s="30"/>
       <c r="Q92" s="30"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="180"/>
-      <c r="C93" s="181"/>
-      <c r="D93" s="181"/>
-      <c r="E93" s="181"/>
-      <c r="F93" s="181"/>
-      <c r="G93" s="181"/>
-      <c r="H93" s="181"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="181"/>
-      <c r="K93" s="181"/>
-      <c r="L93" s="181"/>
-      <c r="M93" s="181"/>
-      <c r="N93" s="181"/>
-      <c r="O93" s="181"/>
+      <c r="B93" s="187"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="188"/>
+      <c r="E93" s="188"/>
+      <c r="F93" s="188"/>
+      <c r="G93" s="188"/>
+      <c r="H93" s="188"/>
+      <c r="I93" s="188"/>
+      <c r="J93" s="188"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="188"/>
+      <c r="M93" s="188"/>
+      <c r="N93" s="188"/>
+      <c r="O93" s="188"/>
       <c r="P93" s="30"/>
       <c r="Q93" s="30"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="180"/>
-      <c r="C94" s="181"/>
-      <c r="D94" s="181"/>
-      <c r="E94" s="181"/>
-      <c r="F94" s="181"/>
-      <c r="G94" s="181"/>
-      <c r="H94" s="181"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="181"/>
-      <c r="K94" s="181"/>
-      <c r="L94" s="181"/>
-      <c r="M94" s="181"/>
-      <c r="N94" s="181"/>
-      <c r="O94" s="181"/>
+      <c r="B94" s="187"/>
+      <c r="C94" s="188"/>
+      <c r="D94" s="188"/>
+      <c r="E94" s="188"/>
+      <c r="F94" s="188"/>
+      <c r="G94" s="188"/>
+      <c r="H94" s="188"/>
+      <c r="I94" s="188"/>
+      <c r="J94" s="188"/>
+      <c r="K94" s="188"/>
+      <c r="L94" s="188"/>
+      <c r="M94" s="188"/>
+      <c r="N94" s="188"/>
+      <c r="O94" s="188"/>
       <c r="P94" s="30"/>
       <c r="Q94" s="30"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="180"/>
-      <c r="C95" s="181"/>
-      <c r="D95" s="181"/>
-      <c r="E95" s="181"/>
-      <c r="F95" s="181"/>
-      <c r="G95" s="181"/>
-      <c r="H95" s="181"/>
-      <c r="I95" s="181"/>
-      <c r="J95" s="181"/>
-      <c r="K95" s="181"/>
-      <c r="L95" s="181"/>
-      <c r="M95" s="181"/>
-      <c r="N95" s="181"/>
-      <c r="O95" s="181"/>
+      <c r="B95" s="187"/>
+      <c r="C95" s="188"/>
+      <c r="D95" s="188"/>
+      <c r="E95" s="188"/>
+      <c r="F95" s="188"/>
+      <c r="G95" s="188"/>
+      <c r="H95" s="188"/>
+      <c r="I95" s="188"/>
+      <c r="J95" s="188"/>
+      <c r="K95" s="188"/>
+      <c r="L95" s="188"/>
+      <c r="M95" s="188"/>
+      <c r="N95" s="188"/>
+      <c r="O95" s="188"/>
       <c r="P95" s="30"/>
       <c r="Q95" s="30"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="180"/>
-      <c r="C96" s="181"/>
-      <c r="D96" s="181"/>
-      <c r="E96" s="181"/>
-      <c r="F96" s="181"/>
-      <c r="G96" s="181"/>
-      <c r="H96" s="181"/>
-      <c r="I96" s="181"/>
-      <c r="J96" s="181"/>
-      <c r="K96" s="181"/>
-      <c r="L96" s="181"/>
-      <c r="M96" s="181"/>
-      <c r="N96" s="181"/>
-      <c r="O96" s="181"/>
+      <c r="B96" s="187"/>
+      <c r="C96" s="188"/>
+      <c r="D96" s="188"/>
+      <c r="E96" s="188"/>
+      <c r="F96" s="188"/>
+      <c r="G96" s="188"/>
+      <c r="H96" s="188"/>
+      <c r="I96" s="188"/>
+      <c r="J96" s="188"/>
+      <c r="K96" s="188"/>
+      <c r="L96" s="188"/>
+      <c r="M96" s="188"/>
+      <c r="N96" s="188"/>
+      <c r="O96" s="188"/>
       <c r="P96" s="30"/>
       <c r="Q96" s="30"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="180"/>
-      <c r="C97" s="181"/>
-      <c r="D97" s="181"/>
-      <c r="E97" s="181"/>
-      <c r="F97" s="181"/>
-      <c r="G97" s="181"/>
-      <c r="H97" s="181"/>
-      <c r="I97" s="181"/>
-      <c r="J97" s="181"/>
-      <c r="K97" s="181"/>
-      <c r="L97" s="181"/>
-      <c r="M97" s="181"/>
-      <c r="N97" s="181"/>
-      <c r="O97" s="181"/>
+      <c r="B97" s="187"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="188"/>
+      <c r="F97" s="188"/>
+      <c r="G97" s="188"/>
+      <c r="H97" s="188"/>
+      <c r="I97" s="188"/>
+      <c r="J97" s="188"/>
+      <c r="K97" s="188"/>
+      <c r="L97" s="188"/>
+      <c r="M97" s="188"/>
+      <c r="N97" s="188"/>
+      <c r="O97" s="188"/>
       <c r="P97" s="30"/>
       <c r="Q97" s="30"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="180"/>
-      <c r="C98" s="181"/>
-      <c r="D98" s="181"/>
-      <c r="E98" s="181"/>
-      <c r="F98" s="181"/>
-      <c r="G98" s="181"/>
-      <c r="H98" s="181"/>
-      <c r="I98" s="181"/>
-      <c r="J98" s="181"/>
-      <c r="K98" s="181"/>
-      <c r="L98" s="181"/>
-      <c r="M98" s="181"/>
-      <c r="N98" s="181"/>
-      <c r="O98" s="181"/>
+      <c r="B98" s="187"/>
+      <c r="C98" s="188"/>
+      <c r="D98" s="188"/>
+      <c r="E98" s="188"/>
+      <c r="F98" s="188"/>
+      <c r="G98" s="188"/>
+      <c r="H98" s="188"/>
+      <c r="I98" s="188"/>
+      <c r="J98" s="188"/>
+      <c r="K98" s="188"/>
+      <c r="L98" s="188"/>
+      <c r="M98" s="188"/>
+      <c r="N98" s="188"/>
+      <c r="O98" s="188"/>
       <c r="P98" s="30"/>
       <c r="Q98" s="30"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="180"/>
-      <c r="C99" s="181"/>
-      <c r="D99" s="181"/>
-      <c r="E99" s="181"/>
-      <c r="F99" s="181"/>
-      <c r="G99" s="181"/>
-      <c r="H99" s="181"/>
-      <c r="I99" s="181"/>
-      <c r="J99" s="181"/>
-      <c r="K99" s="181"/>
-      <c r="L99" s="181"/>
-      <c r="M99" s="181"/>
-      <c r="N99" s="181"/>
-      <c r="O99" s="181"/>
+      <c r="B99" s="187"/>
+      <c r="C99" s="188"/>
+      <c r="D99" s="188"/>
+      <c r="E99" s="188"/>
+      <c r="F99" s="188"/>
+      <c r="G99" s="188"/>
+      <c r="H99" s="188"/>
+      <c r="I99" s="188"/>
+      <c r="J99" s="188"/>
+      <c r="K99" s="188"/>
+      <c r="L99" s="188"/>
+      <c r="M99" s="188"/>
+      <c r="N99" s="188"/>
+      <c r="O99" s="188"/>
       <c r="P99" s="30"/>
       <c r="Q99" s="30"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="180"/>
-      <c r="C100" s="181"/>
-      <c r="D100" s="181"/>
-      <c r="E100" s="181"/>
-      <c r="F100" s="181"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="181"/>
-      <c r="I100" s="181"/>
-      <c r="J100" s="181"/>
-      <c r="K100" s="181"/>
-      <c r="L100" s="181"/>
-      <c r="M100" s="181"/>
-      <c r="N100" s="181"/>
-      <c r="O100" s="181"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="188"/>
+      <c r="D100" s="188"/>
+      <c r="E100" s="188"/>
+      <c r="F100" s="188"/>
+      <c r="G100" s="188"/>
+      <c r="H100" s="188"/>
+      <c r="I100" s="188"/>
+      <c r="J100" s="188"/>
+      <c r="K100" s="188"/>
+      <c r="L100" s="188"/>
+      <c r="M100" s="188"/>
+      <c r="N100" s="188"/>
+      <c r="O100" s="188"/>
       <c r="P100" s="30"/>
       <c r="Q100" s="30"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="180"/>
-      <c r="C101" s="181"/>
-      <c r="D101" s="181"/>
-      <c r="E101" s="181"/>
-      <c r="F101" s="181"/>
-      <c r="G101" s="181"/>
-      <c r="H101" s="181"/>
-      <c r="I101" s="181"/>
-      <c r="J101" s="181"/>
-      <c r="K101" s="181"/>
-      <c r="L101" s="181"/>
-      <c r="M101" s="181"/>
-      <c r="N101" s="181"/>
-      <c r="O101" s="181"/>
+      <c r="B101" s="187"/>
+      <c r="C101" s="188"/>
+      <c r="D101" s="188"/>
+      <c r="E101" s="188"/>
+      <c r="F101" s="188"/>
+      <c r="G101" s="188"/>
+      <c r="H101" s="188"/>
+      <c r="I101" s="188"/>
+      <c r="J101" s="188"/>
+      <c r="K101" s="188"/>
+      <c r="L101" s="188"/>
+      <c r="M101" s="188"/>
+      <c r="N101" s="188"/>
+      <c r="O101" s="188"/>
       <c r="P101" s="30"/>
       <c r="Q101" s="30"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="180"/>
-      <c r="C102" s="181"/>
-      <c r="D102" s="181"/>
-      <c r="E102" s="181"/>
-      <c r="F102" s="181"/>
-      <c r="G102" s="181"/>
-      <c r="H102" s="181"/>
-      <c r="I102" s="181"/>
-      <c r="J102" s="181"/>
-      <c r="K102" s="181"/>
-      <c r="L102" s="181"/>
-      <c r="M102" s="181"/>
-      <c r="N102" s="181"/>
-      <c r="O102" s="181"/>
+      <c r="B102" s="187"/>
+      <c r="C102" s="188"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="188"/>
+      <c r="F102" s="188"/>
+      <c r="G102" s="188"/>
+      <c r="H102" s="188"/>
+      <c r="I102" s="188"/>
+      <c r="J102" s="188"/>
+      <c r="K102" s="188"/>
+      <c r="L102" s="188"/>
+      <c r="M102" s="188"/>
+      <c r="N102" s="188"/>
+      <c r="O102" s="188"/>
       <c r="P102" s="30"/>
       <c r="Q102" s="30"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="180"/>
-      <c r="C103" s="181"/>
-      <c r="D103" s="181"/>
-      <c r="E103" s="181"/>
-      <c r="F103" s="181"/>
-      <c r="G103" s="181"/>
-      <c r="H103" s="181"/>
-      <c r="I103" s="181"/>
-      <c r="J103" s="181"/>
-      <c r="K103" s="181"/>
-      <c r="L103" s="181"/>
-      <c r="M103" s="181"/>
-      <c r="N103" s="181"/>
-      <c r="O103" s="181"/>
+      <c r="B103" s="187"/>
+      <c r="C103" s="188"/>
+      <c r="D103" s="188"/>
+      <c r="E103" s="188"/>
+      <c r="F103" s="188"/>
+      <c r="G103" s="188"/>
+      <c r="H103" s="188"/>
+      <c r="I103" s="188"/>
+      <c r="J103" s="188"/>
+      <c r="K103" s="188"/>
+      <c r="L103" s="188"/>
+      <c r="M103" s="188"/>
+      <c r="N103" s="188"/>
+      <c r="O103" s="188"/>
       <c r="P103" s="30"/>
       <c r="Q103" s="30"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="180"/>
-      <c r="C104" s="181"/>
-      <c r="D104" s="181"/>
-      <c r="E104" s="181"/>
-      <c r="F104" s="181"/>
-      <c r="G104" s="181"/>
-      <c r="H104" s="181"/>
-      <c r="I104" s="181"/>
-      <c r="J104" s="181"/>
-      <c r="K104" s="181"/>
-      <c r="L104" s="181"/>
-      <c r="M104" s="181"/>
-      <c r="N104" s="181"/>
-      <c r="O104" s="181"/>
+      <c r="B104" s="187"/>
+      <c r="C104" s="188"/>
+      <c r="D104" s="188"/>
+      <c r="E104" s="188"/>
+      <c r="F104" s="188"/>
+      <c r="G104" s="188"/>
+      <c r="H104" s="188"/>
+      <c r="I104" s="188"/>
+      <c r="J104" s="188"/>
+      <c r="K104" s="188"/>
+      <c r="L104" s="188"/>
+      <c r="M104" s="188"/>
+      <c r="N104" s="188"/>
+      <c r="O104" s="188"/>
       <c r="P104" s="30"/>
       <c r="Q104" s="30"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="180"/>
-      <c r="C105" s="181"/>
-      <c r="D105" s="181"/>
-      <c r="E105" s="181"/>
-      <c r="F105" s="181"/>
-      <c r="G105" s="181"/>
-      <c r="H105" s="181"/>
-      <c r="I105" s="181"/>
-      <c r="J105" s="181"/>
-      <c r="K105" s="181"/>
-      <c r="L105" s="181"/>
-      <c r="M105" s="181"/>
-      <c r="N105" s="181"/>
-      <c r="O105" s="181"/>
+      <c r="B105" s="187"/>
+      <c r="C105" s="188"/>
+      <c r="D105" s="188"/>
+      <c r="E105" s="188"/>
+      <c r="F105" s="188"/>
+      <c r="G105" s="188"/>
+      <c r="H105" s="188"/>
+      <c r="I105" s="188"/>
+      <c r="J105" s="188"/>
+      <c r="K105" s="188"/>
+      <c r="L105" s="188"/>
+      <c r="M105" s="188"/>
+      <c r="N105" s="188"/>
+      <c r="O105" s="188"/>
       <c r="P105" s="30"/>
       <c r="Q105" s="30"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="180"/>
-      <c r="C106" s="181"/>
-      <c r="D106" s="181"/>
-      <c r="E106" s="181"/>
-      <c r="F106" s="181"/>
-      <c r="G106" s="181"/>
-      <c r="H106" s="181"/>
-      <c r="I106" s="181"/>
-      <c r="J106" s="181"/>
-      <c r="K106" s="181"/>
-      <c r="L106" s="181"/>
-      <c r="M106" s="181"/>
-      <c r="N106" s="181"/>
-      <c r="O106" s="181"/>
+      <c r="B106" s="187"/>
+      <c r="C106" s="188"/>
+      <c r="D106" s="188"/>
+      <c r="E106" s="188"/>
+      <c r="F106" s="188"/>
+      <c r="G106" s="188"/>
+      <c r="H106" s="188"/>
+      <c r="I106" s="188"/>
+      <c r="J106" s="188"/>
+      <c r="K106" s="188"/>
+      <c r="L106" s="188"/>
+      <c r="M106" s="188"/>
+      <c r="N106" s="188"/>
+      <c r="O106" s="188"/>
       <c r="P106" s="30"/>
       <c r="Q106" s="30"/>
     </row>
@@ -5589,17 +5589,17 @@
       <c r="Q107" s="30"/>
     </row>
     <row r="108" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="172" t="s">
+      <c r="B108" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="C108" s="172"/>
-      <c r="D108" s="172"/>
-      <c r="E108" s="172"/>
-      <c r="F108" s="172"/>
-      <c r="G108" s="172"/>
-      <c r="H108" s="172"/>
-      <c r="I108" s="172"/>
-      <c r="J108" s="172"/>
+      <c r="C108" s="179"/>
+      <c r="D108" s="179"/>
+      <c r="E108" s="179"/>
+      <c r="F108" s="179"/>
+      <c r="G108" s="179"/>
+      <c r="H108" s="179"/>
+      <c r="I108" s="179"/>
+      <c r="J108" s="179"/>
       <c r="K108" s="30"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30"/>
@@ -5609,416 +5609,416 @@
       <c r="Q108" s="30"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="180"/>
-      <c r="C109" s="181"/>
-      <c r="D109" s="181"/>
-      <c r="E109" s="181"/>
-      <c r="F109" s="181"/>
-      <c r="G109" s="181"/>
-      <c r="H109" s="181"/>
-      <c r="I109" s="181"/>
-      <c r="J109" s="181"/>
-      <c r="K109" s="181"/>
-      <c r="L109" s="181"/>
-      <c r="M109" s="181"/>
-      <c r="N109" s="181"/>
-      <c r="O109" s="181"/>
+      <c r="B109" s="187"/>
+      <c r="C109" s="188"/>
+      <c r="D109" s="188"/>
+      <c r="E109" s="188"/>
+      <c r="F109" s="188"/>
+      <c r="G109" s="188"/>
+      <c r="H109" s="188"/>
+      <c r="I109" s="188"/>
+      <c r="J109" s="188"/>
+      <c r="K109" s="188"/>
+      <c r="L109" s="188"/>
+      <c r="M109" s="188"/>
+      <c r="N109" s="188"/>
+      <c r="O109" s="188"/>
       <c r="P109" s="30"/>
       <c r="Q109" s="30"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="180"/>
-      <c r="C110" s="181"/>
-      <c r="D110" s="181"/>
-      <c r="E110" s="181"/>
-      <c r="F110" s="181"/>
-      <c r="G110" s="181"/>
-      <c r="H110" s="181"/>
-      <c r="I110" s="181"/>
-      <c r="J110" s="181"/>
-      <c r="K110" s="181"/>
-      <c r="L110" s="181"/>
-      <c r="M110" s="181"/>
-      <c r="N110" s="181"/>
-      <c r="O110" s="181"/>
+      <c r="B110" s="187"/>
+      <c r="C110" s="188"/>
+      <c r="D110" s="188"/>
+      <c r="E110" s="188"/>
+      <c r="F110" s="188"/>
+      <c r="G110" s="188"/>
+      <c r="H110" s="188"/>
+      <c r="I110" s="188"/>
+      <c r="J110" s="188"/>
+      <c r="K110" s="188"/>
+      <c r="L110" s="188"/>
+      <c r="M110" s="188"/>
+      <c r="N110" s="188"/>
+      <c r="O110" s="188"/>
       <c r="P110" s="30"/>
       <c r="Q110" s="30"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="180"/>
-      <c r="C111" s="181"/>
-      <c r="D111" s="181"/>
-      <c r="E111" s="181"/>
-      <c r="F111" s="181"/>
-      <c r="G111" s="181"/>
-      <c r="H111" s="181"/>
-      <c r="I111" s="181"/>
-      <c r="J111" s="181"/>
-      <c r="K111" s="181"/>
-      <c r="L111" s="181"/>
-      <c r="M111" s="181"/>
-      <c r="N111" s="181"/>
-      <c r="O111" s="181"/>
+      <c r="B111" s="187"/>
+      <c r="C111" s="188"/>
+      <c r="D111" s="188"/>
+      <c r="E111" s="188"/>
+      <c r="F111" s="188"/>
+      <c r="G111" s="188"/>
+      <c r="H111" s="188"/>
+      <c r="I111" s="188"/>
+      <c r="J111" s="188"/>
+      <c r="K111" s="188"/>
+      <c r="L111" s="188"/>
+      <c r="M111" s="188"/>
+      <c r="N111" s="188"/>
+      <c r="O111" s="188"/>
       <c r="P111" s="30"/>
       <c r="Q111" s="30"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="180"/>
-      <c r="C112" s="181"/>
-      <c r="D112" s="181"/>
-      <c r="E112" s="181"/>
-      <c r="F112" s="181"/>
-      <c r="G112" s="181"/>
-      <c r="H112" s="181"/>
-      <c r="I112" s="181"/>
-      <c r="J112" s="181"/>
-      <c r="K112" s="181"/>
-      <c r="L112" s="181"/>
-      <c r="M112" s="181"/>
-      <c r="N112" s="181"/>
-      <c r="O112" s="181"/>
+      <c r="B112" s="187"/>
+      <c r="C112" s="188"/>
+      <c r="D112" s="188"/>
+      <c r="E112" s="188"/>
+      <c r="F112" s="188"/>
+      <c r="G112" s="188"/>
+      <c r="H112" s="188"/>
+      <c r="I112" s="188"/>
+      <c r="J112" s="188"/>
+      <c r="K112" s="188"/>
+      <c r="L112" s="188"/>
+      <c r="M112" s="188"/>
+      <c r="N112" s="188"/>
+      <c r="O112" s="188"/>
       <c r="P112" s="30"/>
       <c r="Q112" s="30"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="180"/>
-      <c r="C113" s="181"/>
-      <c r="D113" s="181"/>
-      <c r="E113" s="181"/>
-      <c r="F113" s="181"/>
-      <c r="G113" s="181"/>
-      <c r="H113" s="181"/>
-      <c r="I113" s="181"/>
-      <c r="J113" s="181"/>
-      <c r="K113" s="181"/>
-      <c r="L113" s="181"/>
-      <c r="M113" s="181"/>
-      <c r="N113" s="181"/>
-      <c r="O113" s="181"/>
+      <c r="B113" s="187"/>
+      <c r="C113" s="188"/>
+      <c r="D113" s="188"/>
+      <c r="E113" s="188"/>
+      <c r="F113" s="188"/>
+      <c r="G113" s="188"/>
+      <c r="H113" s="188"/>
+      <c r="I113" s="188"/>
+      <c r="J113" s="188"/>
+      <c r="K113" s="188"/>
+      <c r="L113" s="188"/>
+      <c r="M113" s="188"/>
+      <c r="N113" s="188"/>
+      <c r="O113" s="188"/>
       <c r="P113" s="30"/>
       <c r="Q113" s="30"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="180"/>
-      <c r="C114" s="181"/>
-      <c r="D114" s="181"/>
-      <c r="E114" s="181"/>
-      <c r="F114" s="181"/>
-      <c r="G114" s="181"/>
-      <c r="H114" s="181"/>
-      <c r="I114" s="181"/>
-      <c r="J114" s="181"/>
-      <c r="K114" s="181"/>
-      <c r="L114" s="181"/>
-      <c r="M114" s="181"/>
-      <c r="N114" s="181"/>
-      <c r="O114" s="181"/>
+      <c r="B114" s="187"/>
+      <c r="C114" s="188"/>
+      <c r="D114" s="188"/>
+      <c r="E114" s="188"/>
+      <c r="F114" s="188"/>
+      <c r="G114" s="188"/>
+      <c r="H114" s="188"/>
+      <c r="I114" s="188"/>
+      <c r="J114" s="188"/>
+      <c r="K114" s="188"/>
+      <c r="L114" s="188"/>
+      <c r="M114" s="188"/>
+      <c r="N114" s="188"/>
+      <c r="O114" s="188"/>
       <c r="P114" s="30"/>
       <c r="Q114" s="30"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="180"/>
-      <c r="C115" s="181"/>
-      <c r="D115" s="181"/>
-      <c r="E115" s="181"/>
-      <c r="F115" s="181"/>
-      <c r="G115" s="181"/>
-      <c r="H115" s="181"/>
-      <c r="I115" s="181"/>
-      <c r="J115" s="181"/>
-      <c r="K115" s="181"/>
-      <c r="L115" s="181"/>
-      <c r="M115" s="181"/>
-      <c r="N115" s="181"/>
-      <c r="O115" s="181"/>
+      <c r="B115" s="187"/>
+      <c r="C115" s="188"/>
+      <c r="D115" s="188"/>
+      <c r="E115" s="188"/>
+      <c r="F115" s="188"/>
+      <c r="G115" s="188"/>
+      <c r="H115" s="188"/>
+      <c r="I115" s="188"/>
+      <c r="J115" s="188"/>
+      <c r="K115" s="188"/>
+      <c r="L115" s="188"/>
+      <c r="M115" s="188"/>
+      <c r="N115" s="188"/>
+      <c r="O115" s="188"/>
       <c r="P115" s="30"/>
       <c r="Q115" s="30"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="180"/>
-      <c r="C116" s="181"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="181"/>
-      <c r="F116" s="181"/>
-      <c r="G116" s="181"/>
-      <c r="H116" s="181"/>
-      <c r="I116" s="181"/>
-      <c r="J116" s="181"/>
-      <c r="K116" s="181"/>
-      <c r="L116" s="181"/>
-      <c r="M116" s="181"/>
-      <c r="N116" s="181"/>
-      <c r="O116" s="181"/>
+      <c r="B116" s="187"/>
+      <c r="C116" s="188"/>
+      <c r="D116" s="188"/>
+      <c r="E116" s="188"/>
+      <c r="F116" s="188"/>
+      <c r="G116" s="188"/>
+      <c r="H116" s="188"/>
+      <c r="I116" s="188"/>
+      <c r="J116" s="188"/>
+      <c r="K116" s="188"/>
+      <c r="L116" s="188"/>
+      <c r="M116" s="188"/>
+      <c r="N116" s="188"/>
+      <c r="O116" s="188"/>
       <c r="P116" s="30"/>
       <c r="Q116" s="30"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="180"/>
-      <c r="C117" s="181"/>
-      <c r="D117" s="181"/>
-      <c r="E117" s="181"/>
-      <c r="F117" s="181"/>
-      <c r="G117" s="181"/>
-      <c r="H117" s="181"/>
-      <c r="I117" s="181"/>
-      <c r="J117" s="181"/>
-      <c r="K117" s="181"/>
-      <c r="L117" s="181"/>
-      <c r="M117" s="181"/>
-      <c r="N117" s="181"/>
-      <c r="O117" s="181"/>
+      <c r="B117" s="187"/>
+      <c r="C117" s="188"/>
+      <c r="D117" s="188"/>
+      <c r="E117" s="188"/>
+      <c r="F117" s="188"/>
+      <c r="G117" s="188"/>
+      <c r="H117" s="188"/>
+      <c r="I117" s="188"/>
+      <c r="J117" s="188"/>
+      <c r="K117" s="188"/>
+      <c r="L117" s="188"/>
+      <c r="M117" s="188"/>
+      <c r="N117" s="188"/>
+      <c r="O117" s="188"/>
       <c r="P117" s="30"/>
       <c r="Q117" s="30"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="180"/>
-      <c r="C118" s="181"/>
-      <c r="D118" s="181"/>
-      <c r="E118" s="181"/>
-      <c r="F118" s="181"/>
-      <c r="G118" s="181"/>
-      <c r="H118" s="181"/>
-      <c r="I118" s="181"/>
-      <c r="J118" s="181"/>
-      <c r="K118" s="181"/>
-      <c r="L118" s="181"/>
-      <c r="M118" s="181"/>
-      <c r="N118" s="181"/>
-      <c r="O118" s="181"/>
+      <c r="B118" s="187"/>
+      <c r="C118" s="188"/>
+      <c r="D118" s="188"/>
+      <c r="E118" s="188"/>
+      <c r="F118" s="188"/>
+      <c r="G118" s="188"/>
+      <c r="H118" s="188"/>
+      <c r="I118" s="188"/>
+      <c r="J118" s="188"/>
+      <c r="K118" s="188"/>
+      <c r="L118" s="188"/>
+      <c r="M118" s="188"/>
+      <c r="N118" s="188"/>
+      <c r="O118" s="188"/>
       <c r="P118" s="30"/>
       <c r="Q118" s="30"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="180"/>
-      <c r="C119" s="181"/>
-      <c r="D119" s="181"/>
-      <c r="E119" s="181"/>
-      <c r="F119" s="181"/>
-      <c r="G119" s="181"/>
-      <c r="H119" s="181"/>
-      <c r="I119" s="181"/>
-      <c r="J119" s="181"/>
-      <c r="K119" s="181"/>
-      <c r="L119" s="181"/>
-      <c r="M119" s="181"/>
-      <c r="N119" s="181"/>
-      <c r="O119" s="181"/>
+      <c r="B119" s="187"/>
+      <c r="C119" s="188"/>
+      <c r="D119" s="188"/>
+      <c r="E119" s="188"/>
+      <c r="F119" s="188"/>
+      <c r="G119" s="188"/>
+      <c r="H119" s="188"/>
+      <c r="I119" s="188"/>
+      <c r="J119" s="188"/>
+      <c r="K119" s="188"/>
+      <c r="L119" s="188"/>
+      <c r="M119" s="188"/>
+      <c r="N119" s="188"/>
+      <c r="O119" s="188"/>
       <c r="P119" s="30"/>
       <c r="Q119" s="30"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="180"/>
-      <c r="C120" s="181"/>
-      <c r="D120" s="181"/>
-      <c r="E120" s="181"/>
-      <c r="F120" s="181"/>
-      <c r="G120" s="181"/>
-      <c r="H120" s="181"/>
-      <c r="I120" s="181"/>
-      <c r="J120" s="181"/>
-      <c r="K120" s="181"/>
-      <c r="L120" s="181"/>
-      <c r="M120" s="181"/>
-      <c r="N120" s="181"/>
-      <c r="O120" s="181"/>
+      <c r="B120" s="187"/>
+      <c r="C120" s="188"/>
+      <c r="D120" s="188"/>
+      <c r="E120" s="188"/>
+      <c r="F120" s="188"/>
+      <c r="G120" s="188"/>
+      <c r="H120" s="188"/>
+      <c r="I120" s="188"/>
+      <c r="J120" s="188"/>
+      <c r="K120" s="188"/>
+      <c r="L120" s="188"/>
+      <c r="M120" s="188"/>
+      <c r="N120" s="188"/>
+      <c r="O120" s="188"/>
       <c r="P120" s="30"/>
       <c r="Q120" s="30"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="180"/>
-      <c r="C121" s="181"/>
-      <c r="D121" s="181"/>
-      <c r="E121" s="181"/>
-      <c r="F121" s="181"/>
-      <c r="G121" s="181"/>
-      <c r="H121" s="181"/>
-      <c r="I121" s="181"/>
-      <c r="J121" s="181"/>
-      <c r="K121" s="181"/>
-      <c r="L121" s="181"/>
-      <c r="M121" s="181"/>
-      <c r="N121" s="181"/>
-      <c r="O121" s="181"/>
+      <c r="B121" s="187"/>
+      <c r="C121" s="188"/>
+      <c r="D121" s="188"/>
+      <c r="E121" s="188"/>
+      <c r="F121" s="188"/>
+      <c r="G121" s="188"/>
+      <c r="H121" s="188"/>
+      <c r="I121" s="188"/>
+      <c r="J121" s="188"/>
+      <c r="K121" s="188"/>
+      <c r="L121" s="188"/>
+      <c r="M121" s="188"/>
+      <c r="N121" s="188"/>
+      <c r="O121" s="188"/>
       <c r="P121" s="30"/>
       <c r="Q121" s="30"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="180"/>
-      <c r="C122" s="181"/>
-      <c r="D122" s="181"/>
-      <c r="E122" s="181"/>
-      <c r="F122" s="181"/>
-      <c r="G122" s="181"/>
-      <c r="H122" s="181"/>
-      <c r="I122" s="181"/>
-      <c r="J122" s="181"/>
-      <c r="K122" s="181"/>
-      <c r="L122" s="181"/>
-      <c r="M122" s="181"/>
-      <c r="N122" s="181"/>
-      <c r="O122" s="181"/>
+      <c r="B122" s="187"/>
+      <c r="C122" s="188"/>
+      <c r="D122" s="188"/>
+      <c r="E122" s="188"/>
+      <c r="F122" s="188"/>
+      <c r="G122" s="188"/>
+      <c r="H122" s="188"/>
+      <c r="I122" s="188"/>
+      <c r="J122" s="188"/>
+      <c r="K122" s="188"/>
+      <c r="L122" s="188"/>
+      <c r="M122" s="188"/>
+      <c r="N122" s="188"/>
+      <c r="O122" s="188"/>
       <c r="P122" s="30"/>
       <c r="Q122" s="30"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="180"/>
-      <c r="C123" s="181"/>
-      <c r="D123" s="181"/>
-      <c r="E123" s="181"/>
-      <c r="F123" s="181"/>
-      <c r="G123" s="181"/>
-      <c r="H123" s="181"/>
-      <c r="I123" s="181"/>
-      <c r="J123" s="181"/>
-      <c r="K123" s="181"/>
-      <c r="L123" s="181"/>
-      <c r="M123" s="181"/>
-      <c r="N123" s="181"/>
-      <c r="O123" s="181"/>
+      <c r="B123" s="187"/>
+      <c r="C123" s="188"/>
+      <c r="D123" s="188"/>
+      <c r="E123" s="188"/>
+      <c r="F123" s="188"/>
+      <c r="G123" s="188"/>
+      <c r="H123" s="188"/>
+      <c r="I123" s="188"/>
+      <c r="J123" s="188"/>
+      <c r="K123" s="188"/>
+      <c r="L123" s="188"/>
+      <c r="M123" s="188"/>
+      <c r="N123" s="188"/>
+      <c r="O123" s="188"/>
       <c r="P123" s="30"/>
       <c r="Q123" s="30"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="180"/>
-      <c r="C124" s="181"/>
-      <c r="D124" s="181"/>
-      <c r="E124" s="181"/>
-      <c r="F124" s="181"/>
-      <c r="G124" s="181"/>
-      <c r="H124" s="181"/>
-      <c r="I124" s="181"/>
-      <c r="J124" s="181"/>
-      <c r="K124" s="181"/>
-      <c r="L124" s="181"/>
-      <c r="M124" s="181"/>
-      <c r="N124" s="181"/>
-      <c r="O124" s="181"/>
+      <c r="B124" s="187"/>
+      <c r="C124" s="188"/>
+      <c r="D124" s="188"/>
+      <c r="E124" s="188"/>
+      <c r="F124" s="188"/>
+      <c r="G124" s="188"/>
+      <c r="H124" s="188"/>
+      <c r="I124" s="188"/>
+      <c r="J124" s="188"/>
+      <c r="K124" s="188"/>
+      <c r="L124" s="188"/>
+      <c r="M124" s="188"/>
+      <c r="N124" s="188"/>
+      <c r="O124" s="188"/>
       <c r="P124" s="30"/>
       <c r="Q124" s="30"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="180"/>
-      <c r="C125" s="181"/>
-      <c r="D125" s="181"/>
-      <c r="E125" s="181"/>
-      <c r="F125" s="181"/>
-      <c r="G125" s="181"/>
-      <c r="H125" s="181"/>
-      <c r="I125" s="181"/>
-      <c r="J125" s="181"/>
-      <c r="K125" s="181"/>
-      <c r="L125" s="181"/>
-      <c r="M125" s="181"/>
-      <c r="N125" s="181"/>
-      <c r="O125" s="181"/>
+      <c r="B125" s="187"/>
+      <c r="C125" s="188"/>
+      <c r="D125" s="188"/>
+      <c r="E125" s="188"/>
+      <c r="F125" s="188"/>
+      <c r="G125" s="188"/>
+      <c r="H125" s="188"/>
+      <c r="I125" s="188"/>
+      <c r="J125" s="188"/>
+      <c r="K125" s="188"/>
+      <c r="L125" s="188"/>
+      <c r="M125" s="188"/>
+      <c r="N125" s="188"/>
+      <c r="O125" s="188"/>
       <c r="P125" s="30"/>
       <c r="Q125" s="30"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="180"/>
-      <c r="C126" s="181"/>
-      <c r="D126" s="181"/>
-      <c r="E126" s="181"/>
-      <c r="F126" s="181"/>
-      <c r="G126" s="181"/>
-      <c r="H126" s="181"/>
-      <c r="I126" s="181"/>
-      <c r="J126" s="181"/>
-      <c r="K126" s="181"/>
-      <c r="L126" s="181"/>
-      <c r="M126" s="181"/>
-      <c r="N126" s="181"/>
-      <c r="O126" s="181"/>
+      <c r="B126" s="187"/>
+      <c r="C126" s="188"/>
+      <c r="D126" s="188"/>
+      <c r="E126" s="188"/>
+      <c r="F126" s="188"/>
+      <c r="G126" s="188"/>
+      <c r="H126" s="188"/>
+      <c r="I126" s="188"/>
+      <c r="J126" s="188"/>
+      <c r="K126" s="188"/>
+      <c r="L126" s="188"/>
+      <c r="M126" s="188"/>
+      <c r="N126" s="188"/>
+      <c r="O126" s="188"/>
       <c r="P126" s="30"/>
       <c r="Q126" s="30"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="180"/>
-      <c r="C127" s="181"/>
-      <c r="D127" s="181"/>
-      <c r="E127" s="181"/>
-      <c r="F127" s="181"/>
-      <c r="G127" s="181"/>
-      <c r="H127" s="181"/>
-      <c r="I127" s="181"/>
-      <c r="J127" s="181"/>
-      <c r="K127" s="181"/>
-      <c r="L127" s="181"/>
-      <c r="M127" s="181"/>
-      <c r="N127" s="181"/>
-      <c r="O127" s="181"/>
+      <c r="B127" s="187"/>
+      <c r="C127" s="188"/>
+      <c r="D127" s="188"/>
+      <c r="E127" s="188"/>
+      <c r="F127" s="188"/>
+      <c r="G127" s="188"/>
+      <c r="H127" s="188"/>
+      <c r="I127" s="188"/>
+      <c r="J127" s="188"/>
+      <c r="K127" s="188"/>
+      <c r="L127" s="188"/>
+      <c r="M127" s="188"/>
+      <c r="N127" s="188"/>
+      <c r="O127" s="188"/>
       <c r="P127" s="30"/>
       <c r="Q127" s="30"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="180"/>
-      <c r="C128" s="181"/>
-      <c r="D128" s="181"/>
-      <c r="E128" s="181"/>
-      <c r="F128" s="181"/>
-      <c r="G128" s="181"/>
-      <c r="H128" s="181"/>
-      <c r="I128" s="181"/>
-      <c r="J128" s="181"/>
-      <c r="K128" s="181"/>
-      <c r="L128" s="181"/>
-      <c r="M128" s="181"/>
-      <c r="N128" s="181"/>
-      <c r="O128" s="181"/>
+      <c r="B128" s="187"/>
+      <c r="C128" s="188"/>
+      <c r="D128" s="188"/>
+      <c r="E128" s="188"/>
+      <c r="F128" s="188"/>
+      <c r="G128" s="188"/>
+      <c r="H128" s="188"/>
+      <c r="I128" s="188"/>
+      <c r="J128" s="188"/>
+      <c r="K128" s="188"/>
+      <c r="L128" s="188"/>
+      <c r="M128" s="188"/>
+      <c r="N128" s="188"/>
+      <c r="O128" s="188"/>
       <c r="P128" s="30"/>
       <c r="Q128" s="30"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="180"/>
-      <c r="C129" s="181"/>
-      <c r="D129" s="181"/>
-      <c r="E129" s="181"/>
-      <c r="F129" s="181"/>
-      <c r="G129" s="181"/>
-      <c r="H129" s="181"/>
-      <c r="I129" s="181"/>
-      <c r="J129" s="181"/>
-      <c r="K129" s="181"/>
-      <c r="L129" s="181"/>
-      <c r="M129" s="181"/>
-      <c r="N129" s="181"/>
-      <c r="O129" s="181"/>
+      <c r="B129" s="187"/>
+      <c r="C129" s="188"/>
+      <c r="D129" s="188"/>
+      <c r="E129" s="188"/>
+      <c r="F129" s="188"/>
+      <c r="G129" s="188"/>
+      <c r="H129" s="188"/>
+      <c r="I129" s="188"/>
+      <c r="J129" s="188"/>
+      <c r="K129" s="188"/>
+      <c r="L129" s="188"/>
+      <c r="M129" s="188"/>
+      <c r="N129" s="188"/>
+      <c r="O129" s="188"/>
       <c r="P129" s="30"/>
       <c r="Q129" s="30"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="180"/>
-      <c r="C130" s="181"/>
-      <c r="D130" s="181"/>
-      <c r="E130" s="181"/>
-      <c r="F130" s="181"/>
-      <c r="G130" s="181"/>
-      <c r="H130" s="181"/>
-      <c r="I130" s="181"/>
-      <c r="J130" s="181"/>
-      <c r="K130" s="181"/>
-      <c r="L130" s="181"/>
-      <c r="M130" s="181"/>
-      <c r="N130" s="181"/>
-      <c r="O130" s="181"/>
+      <c r="B130" s="187"/>
+      <c r="C130" s="188"/>
+      <c r="D130" s="188"/>
+      <c r="E130" s="188"/>
+      <c r="F130" s="188"/>
+      <c r="G130" s="188"/>
+      <c r="H130" s="188"/>
+      <c r="I130" s="188"/>
+      <c r="J130" s="188"/>
+      <c r="K130" s="188"/>
+      <c r="L130" s="188"/>
+      <c r="M130" s="188"/>
+      <c r="N130" s="188"/>
+      <c r="O130" s="188"/>
       <c r="P130" s="30"/>
       <c r="Q130" s="30"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="180"/>
-      <c r="C131" s="181"/>
-      <c r="D131" s="181"/>
-      <c r="E131" s="181"/>
-      <c r="F131" s="181"/>
-      <c r="G131" s="181"/>
-      <c r="H131" s="181"/>
-      <c r="I131" s="181"/>
-      <c r="J131" s="181"/>
-      <c r="K131" s="181"/>
-      <c r="L131" s="181"/>
-      <c r="M131" s="181"/>
-      <c r="N131" s="181"/>
-      <c r="O131" s="181"/>
+      <c r="B131" s="187"/>
+      <c r="C131" s="188"/>
+      <c r="D131" s="188"/>
+      <c r="E131" s="188"/>
+      <c r="F131" s="188"/>
+      <c r="G131" s="188"/>
+      <c r="H131" s="188"/>
+      <c r="I131" s="188"/>
+      <c r="J131" s="188"/>
+      <c r="K131" s="188"/>
+      <c r="L131" s="188"/>
+      <c r="M131" s="188"/>
+      <c r="N131" s="188"/>
+      <c r="O131" s="188"/>
       <c r="P131" s="30"/>
       <c r="Q131" s="30"/>
     </row>
@@ -6041,17 +6041,17 @@
       <c r="Q132" s="30"/>
     </row>
     <row r="133" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="172" t="s">
+      <c r="B133" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="172"/>
-      <c r="D133" s="172"/>
-      <c r="E133" s="172"/>
-      <c r="F133" s="172"/>
-      <c r="G133" s="172"/>
-      <c r="H133" s="172"/>
-      <c r="I133" s="172"/>
-      <c r="J133" s="172"/>
+      <c r="C133" s="179"/>
+      <c r="D133" s="179"/>
+      <c r="E133" s="179"/>
+      <c r="F133" s="179"/>
+      <c r="G133" s="179"/>
+      <c r="H133" s="179"/>
+      <c r="I133" s="179"/>
+      <c r="J133" s="179"/>
       <c r="K133" s="30"/>
       <c r="L133" s="30"/>
       <c r="M133" s="30"/>
@@ -6061,428 +6061,428 @@
       <c r="Q133" s="30"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="180"/>
-      <c r="C134" s="181"/>
-      <c r="D134" s="181"/>
-      <c r="E134" s="181"/>
-      <c r="F134" s="181"/>
-      <c r="G134" s="181"/>
-      <c r="H134" s="181"/>
-      <c r="I134" s="181"/>
-      <c r="J134" s="181"/>
-      <c r="K134" s="181"/>
-      <c r="L134" s="181"/>
-      <c r="M134" s="181"/>
-      <c r="N134" s="181"/>
-      <c r="O134" s="181"/>
+      <c r="B134" s="187"/>
+      <c r="C134" s="188"/>
+      <c r="D134" s="188"/>
+      <c r="E134" s="188"/>
+      <c r="F134" s="188"/>
+      <c r="G134" s="188"/>
+      <c r="H134" s="188"/>
+      <c r="I134" s="188"/>
+      <c r="J134" s="188"/>
+      <c r="K134" s="188"/>
+      <c r="L134" s="188"/>
+      <c r="M134" s="188"/>
+      <c r="N134" s="188"/>
+      <c r="O134" s="188"/>
       <c r="P134" s="30"/>
       <c r="Q134" s="30"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="180"/>
-      <c r="C135" s="181"/>
-      <c r="D135" s="181"/>
-      <c r="E135" s="181"/>
-      <c r="F135" s="181"/>
-      <c r="G135" s="181"/>
-      <c r="H135" s="181"/>
-      <c r="I135" s="181"/>
-      <c r="J135" s="181"/>
-      <c r="K135" s="181"/>
-      <c r="L135" s="181"/>
-      <c r="M135" s="181"/>
-      <c r="N135" s="181"/>
-      <c r="O135" s="181"/>
+      <c r="B135" s="187"/>
+      <c r="C135" s="188"/>
+      <c r="D135" s="188"/>
+      <c r="E135" s="188"/>
+      <c r="F135" s="188"/>
+      <c r="G135" s="188"/>
+      <c r="H135" s="188"/>
+      <c r="I135" s="188"/>
+      <c r="J135" s="188"/>
+      <c r="K135" s="188"/>
+      <c r="L135" s="188"/>
+      <c r="M135" s="188"/>
+      <c r="N135" s="188"/>
+      <c r="O135" s="188"/>
       <c r="P135" s="30"/>
       <c r="Q135" s="30"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="180"/>
-      <c r="C136" s="181"/>
-      <c r="D136" s="181"/>
-      <c r="E136" s="181"/>
-      <c r="F136" s="181"/>
-      <c r="G136" s="181"/>
-      <c r="H136" s="181"/>
-      <c r="I136" s="181"/>
-      <c r="J136" s="181"/>
-      <c r="K136" s="181"/>
-      <c r="L136" s="181"/>
-      <c r="M136" s="181"/>
-      <c r="N136" s="181"/>
-      <c r="O136" s="181"/>
+      <c r="B136" s="187"/>
+      <c r="C136" s="188"/>
+      <c r="D136" s="188"/>
+      <c r="E136" s="188"/>
+      <c r="F136" s="188"/>
+      <c r="G136" s="188"/>
+      <c r="H136" s="188"/>
+      <c r="I136" s="188"/>
+      <c r="J136" s="188"/>
+      <c r="K136" s="188"/>
+      <c r="L136" s="188"/>
+      <c r="M136" s="188"/>
+      <c r="N136" s="188"/>
+      <c r="O136" s="188"/>
       <c r="P136" s="30"/>
       <c r="Q136" s="30"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="180"/>
-      <c r="C137" s="181"/>
-      <c r="D137" s="181"/>
-      <c r="E137" s="181"/>
-      <c r="F137" s="181"/>
-      <c r="G137" s="181"/>
-      <c r="H137" s="181"/>
-      <c r="I137" s="181"/>
-      <c r="J137" s="181"/>
-      <c r="K137" s="181"/>
-      <c r="L137" s="181"/>
-      <c r="M137" s="181"/>
-      <c r="N137" s="181"/>
-      <c r="O137" s="181"/>
+      <c r="B137" s="187"/>
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
+      <c r="E137" s="188"/>
+      <c r="F137" s="188"/>
+      <c r="G137" s="188"/>
+      <c r="H137" s="188"/>
+      <c r="I137" s="188"/>
+      <c r="J137" s="188"/>
+      <c r="K137" s="188"/>
+      <c r="L137" s="188"/>
+      <c r="M137" s="188"/>
+      <c r="N137" s="188"/>
+      <c r="O137" s="188"/>
       <c r="P137" s="30"/>
       <c r="Q137" s="30"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="180"/>
-      <c r="C138" s="181"/>
-      <c r="D138" s="181"/>
-      <c r="E138" s="181"/>
-      <c r="F138" s="181"/>
-      <c r="G138" s="181"/>
-      <c r="H138" s="181"/>
-      <c r="I138" s="181"/>
-      <c r="J138" s="181"/>
-      <c r="K138" s="181"/>
-      <c r="L138" s="181"/>
-      <c r="M138" s="181"/>
-      <c r="N138" s="181"/>
-      <c r="O138" s="181"/>
+      <c r="B138" s="187"/>
+      <c r="C138" s="188"/>
+      <c r="D138" s="188"/>
+      <c r="E138" s="188"/>
+      <c r="F138" s="188"/>
+      <c r="G138" s="188"/>
+      <c r="H138" s="188"/>
+      <c r="I138" s="188"/>
+      <c r="J138" s="188"/>
+      <c r="K138" s="188"/>
+      <c r="L138" s="188"/>
+      <c r="M138" s="188"/>
+      <c r="N138" s="188"/>
+      <c r="O138" s="188"/>
       <c r="P138" s="30"/>
       <c r="Q138" s="30"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="180"/>
-      <c r="C139" s="181"/>
-      <c r="D139" s="181"/>
-      <c r="E139" s="181"/>
-      <c r="F139" s="181"/>
-      <c r="G139" s="181"/>
-      <c r="H139" s="181"/>
-      <c r="I139" s="181"/>
-      <c r="J139" s="181"/>
-      <c r="K139" s="181"/>
-      <c r="L139" s="181"/>
-      <c r="M139" s="181"/>
-      <c r="N139" s="181"/>
-      <c r="O139" s="181"/>
+      <c r="B139" s="187"/>
+      <c r="C139" s="188"/>
+      <c r="D139" s="188"/>
+      <c r="E139" s="188"/>
+      <c r="F139" s="188"/>
+      <c r="G139" s="188"/>
+      <c r="H139" s="188"/>
+      <c r="I139" s="188"/>
+      <c r="J139" s="188"/>
+      <c r="K139" s="188"/>
+      <c r="L139" s="188"/>
+      <c r="M139" s="188"/>
+      <c r="N139" s="188"/>
+      <c r="O139" s="188"/>
       <c r="P139" s="30"/>
       <c r="Q139" s="30"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="180"/>
-      <c r="C140" s="181"/>
-      <c r="D140" s="181"/>
-      <c r="E140" s="181"/>
-      <c r="F140" s="181"/>
-      <c r="G140" s="181"/>
-      <c r="H140" s="181"/>
-      <c r="I140" s="181"/>
-      <c r="J140" s="181"/>
-      <c r="K140" s="181"/>
-      <c r="L140" s="181"/>
-      <c r="M140" s="181"/>
-      <c r="N140" s="181"/>
-      <c r="O140" s="181"/>
+      <c r="B140" s="187"/>
+      <c r="C140" s="188"/>
+      <c r="D140" s="188"/>
+      <c r="E140" s="188"/>
+      <c r="F140" s="188"/>
+      <c r="G140" s="188"/>
+      <c r="H140" s="188"/>
+      <c r="I140" s="188"/>
+      <c r="J140" s="188"/>
+      <c r="K140" s="188"/>
+      <c r="L140" s="188"/>
+      <c r="M140" s="188"/>
+      <c r="N140" s="188"/>
+      <c r="O140" s="188"/>
       <c r="P140" s="30"/>
       <c r="Q140" s="30"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="180"/>
-      <c r="C141" s="181"/>
-      <c r="D141" s="181"/>
-      <c r="E141" s="181"/>
-      <c r="F141" s="181"/>
-      <c r="G141" s="181"/>
-      <c r="H141" s="181"/>
-      <c r="I141" s="181"/>
-      <c r="J141" s="181"/>
-      <c r="K141" s="181"/>
-      <c r="L141" s="181"/>
-      <c r="M141" s="181"/>
-      <c r="N141" s="181"/>
-      <c r="O141" s="181"/>
+      <c r="B141" s="187"/>
+      <c r="C141" s="188"/>
+      <c r="D141" s="188"/>
+      <c r="E141" s="188"/>
+      <c r="F141" s="188"/>
+      <c r="G141" s="188"/>
+      <c r="H141" s="188"/>
+      <c r="I141" s="188"/>
+      <c r="J141" s="188"/>
+      <c r="K141" s="188"/>
+      <c r="L141" s="188"/>
+      <c r="M141" s="188"/>
+      <c r="N141" s="188"/>
+      <c r="O141" s="188"/>
       <c r="P141" s="30"/>
       <c r="Q141" s="30"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="180"/>
-      <c r="C142" s="181"/>
-      <c r="D142" s="181"/>
-      <c r="E142" s="181"/>
-      <c r="F142" s="181"/>
-      <c r="G142" s="181"/>
-      <c r="H142" s="181"/>
-      <c r="I142" s="181"/>
-      <c r="J142" s="181"/>
-      <c r="K142" s="181"/>
-      <c r="L142" s="181"/>
-      <c r="M142" s="181"/>
-      <c r="N142" s="181"/>
-      <c r="O142" s="181"/>
+      <c r="B142" s="187"/>
+      <c r="C142" s="188"/>
+      <c r="D142" s="188"/>
+      <c r="E142" s="188"/>
+      <c r="F142" s="188"/>
+      <c r="G142" s="188"/>
+      <c r="H142" s="188"/>
+      <c r="I142" s="188"/>
+      <c r="J142" s="188"/>
+      <c r="K142" s="188"/>
+      <c r="L142" s="188"/>
+      <c r="M142" s="188"/>
+      <c r="N142" s="188"/>
+      <c r="O142" s="188"/>
       <c r="P142" s="30"/>
       <c r="Q142" s="30"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="180"/>
-      <c r="C143" s="181"/>
-      <c r="D143" s="181"/>
-      <c r="E143" s="181"/>
-      <c r="F143" s="181"/>
-      <c r="G143" s="181"/>
-      <c r="H143" s="181"/>
-      <c r="I143" s="181"/>
-      <c r="J143" s="181"/>
-      <c r="K143" s="181"/>
-      <c r="L143" s="181"/>
-      <c r="M143" s="181"/>
-      <c r="N143" s="181"/>
-      <c r="O143" s="181"/>
+      <c r="B143" s="187"/>
+      <c r="C143" s="188"/>
+      <c r="D143" s="188"/>
+      <c r="E143" s="188"/>
+      <c r="F143" s="188"/>
+      <c r="G143" s="188"/>
+      <c r="H143" s="188"/>
+      <c r="I143" s="188"/>
+      <c r="J143" s="188"/>
+      <c r="K143" s="188"/>
+      <c r="L143" s="188"/>
+      <c r="M143" s="188"/>
+      <c r="N143" s="188"/>
+      <c r="O143" s="188"/>
       <c r="P143" s="30"/>
       <c r="Q143" s="30"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="180"/>
-      <c r="C144" s="181"/>
-      <c r="D144" s="181"/>
-      <c r="E144" s="181"/>
-      <c r="F144" s="181"/>
-      <c r="G144" s="181"/>
-      <c r="H144" s="181"/>
-      <c r="I144" s="181"/>
-      <c r="J144" s="181"/>
-      <c r="K144" s="181"/>
-      <c r="L144" s="181"/>
-      <c r="M144" s="181"/>
-      <c r="N144" s="181"/>
-      <c r="O144" s="181"/>
+      <c r="B144" s="187"/>
+      <c r="C144" s="188"/>
+      <c r="D144" s="188"/>
+      <c r="E144" s="188"/>
+      <c r="F144" s="188"/>
+      <c r="G144" s="188"/>
+      <c r="H144" s="188"/>
+      <c r="I144" s="188"/>
+      <c r="J144" s="188"/>
+      <c r="K144" s="188"/>
+      <c r="L144" s="188"/>
+      <c r="M144" s="188"/>
+      <c r="N144" s="188"/>
+      <c r="O144" s="188"/>
       <c r="P144" s="30"/>
       <c r="Q144" s="30"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="180"/>
-      <c r="C145" s="181"/>
-      <c r="D145" s="181"/>
-      <c r="E145" s="181"/>
-      <c r="F145" s="181"/>
-      <c r="G145" s="181"/>
-      <c r="H145" s="181"/>
-      <c r="I145" s="181"/>
-      <c r="J145" s="181"/>
-      <c r="K145" s="181"/>
-      <c r="L145" s="181"/>
-      <c r="M145" s="181"/>
-      <c r="N145" s="181"/>
-      <c r="O145" s="181"/>
+      <c r="B145" s="187"/>
+      <c r="C145" s="188"/>
+      <c r="D145" s="188"/>
+      <c r="E145" s="188"/>
+      <c r="F145" s="188"/>
+      <c r="G145" s="188"/>
+      <c r="H145" s="188"/>
+      <c r="I145" s="188"/>
+      <c r="J145" s="188"/>
+      <c r="K145" s="188"/>
+      <c r="L145" s="188"/>
+      <c r="M145" s="188"/>
+      <c r="N145" s="188"/>
+      <c r="O145" s="188"/>
       <c r="P145" s="30"/>
       <c r="Q145" s="30"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="180"/>
-      <c r="C146" s="181"/>
-      <c r="D146" s="181"/>
-      <c r="E146" s="181"/>
-      <c r="F146" s="181"/>
-      <c r="G146" s="181"/>
-      <c r="H146" s="181"/>
-      <c r="I146" s="181"/>
-      <c r="J146" s="181"/>
-      <c r="K146" s="181"/>
-      <c r="L146" s="181"/>
-      <c r="M146" s="181"/>
-      <c r="N146" s="181"/>
-      <c r="O146" s="181"/>
+      <c r="B146" s="187"/>
+      <c r="C146" s="188"/>
+      <c r="D146" s="188"/>
+      <c r="E146" s="188"/>
+      <c r="F146" s="188"/>
+      <c r="G146" s="188"/>
+      <c r="H146" s="188"/>
+      <c r="I146" s="188"/>
+      <c r="J146" s="188"/>
+      <c r="K146" s="188"/>
+      <c r="L146" s="188"/>
+      <c r="M146" s="188"/>
+      <c r="N146" s="188"/>
+      <c r="O146" s="188"/>
       <c r="P146" s="30"/>
       <c r="Q146" s="30"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="180"/>
-      <c r="C147" s="181"/>
-      <c r="D147" s="181"/>
-      <c r="E147" s="181"/>
-      <c r="F147" s="181"/>
-      <c r="G147" s="181"/>
-      <c r="H147" s="181"/>
-      <c r="I147" s="181"/>
-      <c r="J147" s="181"/>
-      <c r="K147" s="181"/>
-      <c r="L147" s="181"/>
-      <c r="M147" s="181"/>
-      <c r="N147" s="181"/>
-      <c r="O147" s="181"/>
+      <c r="B147" s="187"/>
+      <c r="C147" s="188"/>
+      <c r="D147" s="188"/>
+      <c r="E147" s="188"/>
+      <c r="F147" s="188"/>
+      <c r="G147" s="188"/>
+      <c r="H147" s="188"/>
+      <c r="I147" s="188"/>
+      <c r="J147" s="188"/>
+      <c r="K147" s="188"/>
+      <c r="L147" s="188"/>
+      <c r="M147" s="188"/>
+      <c r="N147" s="188"/>
+      <c r="O147" s="188"/>
       <c r="P147" s="30"/>
       <c r="Q147" s="30"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="180"/>
-      <c r="C148" s="181"/>
-      <c r="D148" s="181"/>
-      <c r="E148" s="181"/>
-      <c r="F148" s="181"/>
-      <c r="G148" s="181"/>
-      <c r="H148" s="181"/>
-      <c r="I148" s="181"/>
-      <c r="J148" s="181"/>
-      <c r="K148" s="181"/>
-      <c r="L148" s="181"/>
-      <c r="M148" s="181"/>
-      <c r="N148" s="181"/>
-      <c r="O148" s="181"/>
+      <c r="B148" s="187"/>
+      <c r="C148" s="188"/>
+      <c r="D148" s="188"/>
+      <c r="E148" s="188"/>
+      <c r="F148" s="188"/>
+      <c r="G148" s="188"/>
+      <c r="H148" s="188"/>
+      <c r="I148" s="188"/>
+      <c r="J148" s="188"/>
+      <c r="K148" s="188"/>
+      <c r="L148" s="188"/>
+      <c r="M148" s="188"/>
+      <c r="N148" s="188"/>
+      <c r="O148" s="188"/>
       <c r="P148" s="30"/>
       <c r="Q148" s="30"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="180"/>
-      <c r="C149" s="181"/>
-      <c r="D149" s="181"/>
-      <c r="E149" s="181"/>
-      <c r="F149" s="181"/>
-      <c r="G149" s="181"/>
-      <c r="H149" s="181"/>
-      <c r="I149" s="181"/>
-      <c r="J149" s="181"/>
-      <c r="K149" s="181"/>
-      <c r="L149" s="181"/>
-      <c r="M149" s="181"/>
-      <c r="N149" s="181"/>
-      <c r="O149" s="181"/>
+      <c r="B149" s="187"/>
+      <c r="C149" s="188"/>
+      <c r="D149" s="188"/>
+      <c r="E149" s="188"/>
+      <c r="F149" s="188"/>
+      <c r="G149" s="188"/>
+      <c r="H149" s="188"/>
+      <c r="I149" s="188"/>
+      <c r="J149" s="188"/>
+      <c r="K149" s="188"/>
+      <c r="L149" s="188"/>
+      <c r="M149" s="188"/>
+      <c r="N149" s="188"/>
+      <c r="O149" s="188"/>
       <c r="P149" s="30"/>
       <c r="Q149" s="30"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="180"/>
-      <c r="C150" s="181"/>
-      <c r="D150" s="181"/>
-      <c r="E150" s="181"/>
-      <c r="F150" s="181"/>
-      <c r="G150" s="181"/>
-      <c r="H150" s="181"/>
-      <c r="I150" s="181"/>
-      <c r="J150" s="181"/>
-      <c r="K150" s="181"/>
-      <c r="L150" s="181"/>
-      <c r="M150" s="181"/>
-      <c r="N150" s="181"/>
-      <c r="O150" s="181"/>
+      <c r="B150" s="187"/>
+      <c r="C150" s="188"/>
+      <c r="D150" s="188"/>
+      <c r="E150" s="188"/>
+      <c r="F150" s="188"/>
+      <c r="G150" s="188"/>
+      <c r="H150" s="188"/>
+      <c r="I150" s="188"/>
+      <c r="J150" s="188"/>
+      <c r="K150" s="188"/>
+      <c r="L150" s="188"/>
+      <c r="M150" s="188"/>
+      <c r="N150" s="188"/>
+      <c r="O150" s="188"/>
       <c r="P150" s="30"/>
       <c r="Q150" s="30"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="180"/>
-      <c r="C151" s="181"/>
-      <c r="D151" s="181"/>
-      <c r="E151" s="181"/>
-      <c r="F151" s="181"/>
-      <c r="G151" s="181"/>
-      <c r="H151" s="181"/>
-      <c r="I151" s="181"/>
-      <c r="J151" s="181"/>
-      <c r="K151" s="181"/>
-      <c r="L151" s="181"/>
-      <c r="M151" s="181"/>
-      <c r="N151" s="181"/>
-      <c r="O151" s="181"/>
+      <c r="B151" s="187"/>
+      <c r="C151" s="188"/>
+      <c r="D151" s="188"/>
+      <c r="E151" s="188"/>
+      <c r="F151" s="188"/>
+      <c r="G151" s="188"/>
+      <c r="H151" s="188"/>
+      <c r="I151" s="188"/>
+      <c r="J151" s="188"/>
+      <c r="K151" s="188"/>
+      <c r="L151" s="188"/>
+      <c r="M151" s="188"/>
+      <c r="N151" s="188"/>
+      <c r="O151" s="188"/>
       <c r="P151" s="30"/>
       <c r="Q151" s="30"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="180"/>
-      <c r="C152" s="181"/>
-      <c r="D152" s="181"/>
-      <c r="E152" s="181"/>
-      <c r="F152" s="181"/>
-      <c r="G152" s="181"/>
-      <c r="H152" s="181"/>
-      <c r="I152" s="181"/>
-      <c r="J152" s="181"/>
-      <c r="K152" s="181"/>
-      <c r="L152" s="181"/>
-      <c r="M152" s="181"/>
-      <c r="N152" s="181"/>
-      <c r="O152" s="181"/>
+      <c r="B152" s="187"/>
+      <c r="C152" s="188"/>
+      <c r="D152" s="188"/>
+      <c r="E152" s="188"/>
+      <c r="F152" s="188"/>
+      <c r="G152" s="188"/>
+      <c r="H152" s="188"/>
+      <c r="I152" s="188"/>
+      <c r="J152" s="188"/>
+      <c r="K152" s="188"/>
+      <c r="L152" s="188"/>
+      <c r="M152" s="188"/>
+      <c r="N152" s="188"/>
+      <c r="O152" s="188"/>
       <c r="P152" s="30"/>
       <c r="Q152" s="30"/>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B153" s="180"/>
-      <c r="C153" s="181"/>
-      <c r="D153" s="181"/>
-      <c r="E153" s="181"/>
-      <c r="F153" s="181"/>
-      <c r="G153" s="181"/>
-      <c r="H153" s="181"/>
-      <c r="I153" s="181"/>
-      <c r="J153" s="181"/>
-      <c r="K153" s="181"/>
-      <c r="L153" s="181"/>
-      <c r="M153" s="181"/>
-      <c r="N153" s="181"/>
-      <c r="O153" s="181"/>
+      <c r="B153" s="187"/>
+      <c r="C153" s="188"/>
+      <c r="D153" s="188"/>
+      <c r="E153" s="188"/>
+      <c r="F153" s="188"/>
+      <c r="G153" s="188"/>
+      <c r="H153" s="188"/>
+      <c r="I153" s="188"/>
+      <c r="J153" s="188"/>
+      <c r="K153" s="188"/>
+      <c r="L153" s="188"/>
+      <c r="M153" s="188"/>
+      <c r="N153" s="188"/>
+      <c r="O153" s="188"/>
       <c r="P153" s="30"/>
       <c r="Q153" s="30"/>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B154" s="180"/>
-      <c r="C154" s="181"/>
-      <c r="D154" s="181"/>
-      <c r="E154" s="181"/>
-      <c r="F154" s="181"/>
-      <c r="G154" s="181"/>
-      <c r="H154" s="181"/>
-      <c r="I154" s="181"/>
-      <c r="J154" s="181"/>
-      <c r="K154" s="181"/>
-      <c r="L154" s="181"/>
-      <c r="M154" s="181"/>
-      <c r="N154" s="181"/>
-      <c r="O154" s="181"/>
+      <c r="B154" s="187"/>
+      <c r="C154" s="188"/>
+      <c r="D154" s="188"/>
+      <c r="E154" s="188"/>
+      <c r="F154" s="188"/>
+      <c r="G154" s="188"/>
+      <c r="H154" s="188"/>
+      <c r="I154" s="188"/>
+      <c r="J154" s="188"/>
+      <c r="K154" s="188"/>
+      <c r="L154" s="188"/>
+      <c r="M154" s="188"/>
+      <c r="N154" s="188"/>
+      <c r="O154" s="188"/>
       <c r="P154" s="30"/>
       <c r="Q154" s="30"/>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B155" s="180"/>
-      <c r="C155" s="181"/>
-      <c r="D155" s="181"/>
-      <c r="E155" s="181"/>
-      <c r="F155" s="181"/>
-      <c r="G155" s="181"/>
-      <c r="H155" s="181"/>
-      <c r="I155" s="181"/>
-      <c r="J155" s="181"/>
-      <c r="K155" s="181"/>
-      <c r="L155" s="181"/>
-      <c r="M155" s="181"/>
-      <c r="N155" s="181"/>
-      <c r="O155" s="181"/>
+      <c r="B155" s="187"/>
+      <c r="C155" s="188"/>
+      <c r="D155" s="188"/>
+      <c r="E155" s="188"/>
+      <c r="F155" s="188"/>
+      <c r="G155" s="188"/>
+      <c r="H155" s="188"/>
+      <c r="I155" s="188"/>
+      <c r="J155" s="188"/>
+      <c r="K155" s="188"/>
+      <c r="L155" s="188"/>
+      <c r="M155" s="188"/>
+      <c r="N155" s="188"/>
+      <c r="O155" s="188"/>
       <c r="P155" s="30"/>
       <c r="Q155" s="30"/>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B156" s="180"/>
-      <c r="C156" s="181"/>
-      <c r="D156" s="181"/>
-      <c r="E156" s="181"/>
-      <c r="F156" s="181"/>
-      <c r="G156" s="181"/>
-      <c r="H156" s="181"/>
-      <c r="I156" s="181"/>
-      <c r="J156" s="181"/>
-      <c r="K156" s="181"/>
-      <c r="L156" s="181"/>
-      <c r="M156" s="181"/>
-      <c r="N156" s="181"/>
-      <c r="O156" s="181"/>
+      <c r="B156" s="187"/>
+      <c r="C156" s="188"/>
+      <c r="D156" s="188"/>
+      <c r="E156" s="188"/>
+      <c r="F156" s="188"/>
+      <c r="G156" s="188"/>
+      <c r="H156" s="188"/>
+      <c r="I156" s="188"/>
+      <c r="J156" s="188"/>
+      <c r="K156" s="188"/>
+      <c r="L156" s="188"/>
+      <c r="M156" s="188"/>
+      <c r="N156" s="188"/>
+      <c r="O156" s="188"/>
       <c r="P156" s="30"/>
       <c r="Q156" s="30"/>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B157" s="182" t="s">
+      <c r="B157" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="C157" s="182"/>
-      <c r="D157" s="182"/>
-      <c r="E157" s="182"/>
-      <c r="F157" s="182"/>
-      <c r="G157" s="182"/>
+      <c r="C157" s="189"/>
+      <c r="D157" s="189"/>
+      <c r="E157" s="189"/>
+      <c r="F157" s="189"/>
+      <c r="G157" s="189"/>
       <c r="H157" s="30"/>
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
@@ -6495,22 +6495,22 @@
       <c r="Q157" s="30"/>
     </row>
     <row r="158" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="182"/>
-      <c r="C158" s="182"/>
-      <c r="D158" s="182"/>
-      <c r="E158" s="182"/>
-      <c r="F158" s="182"/>
-      <c r="G158" s="182"/>
+      <c r="B158" s="189"/>
+      <c r="C158" s="189"/>
+      <c r="D158" s="189"/>
+      <c r="E158" s="189"/>
+      <c r="F158" s="189"/>
+      <c r="G158" s="189"/>
       <c r="H158" s="30"/>
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
       <c r="K158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L158" s="183"/>
-      <c r="M158" s="183"/>
-      <c r="N158" s="183"/>
-      <c r="O158" s="183"/>
+      <c r="L158" s="190"/>
+      <c r="M158" s="190"/>
+      <c r="N158" s="190"/>
+      <c r="O158" s="190"/>
       <c r="P158" s="30"/>
       <c r="Q158" s="43"/>
     </row>
@@ -6613,8 +6613,6 @@
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M11:P11"/>
@@ -6645,12 +6643,9 @@
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:J50" xr:uid="{08BCBBFA-869B-4E92-8AEF-AD68DDC5595B}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -6658,7 +6653,13 @@
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08BCBBFA-869B-4E92-8AEF-AD68DDC5595B}">
+          <x14:formula1>
+            <xm:f>Заключение!$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E49:J50</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E65645A-4CED-4A05-8F3D-C673224A0FDF}">
           <x14:formula1>
             <xm:f>ЗИП!$A$1:$A$37</xm:f>
@@ -6671,6 +6672,30 @@
           </x14:formula1>
           <xm:sqref>B55:I64</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{589C293B-1D4D-4AE0-8618-6D813F16EFB6}">
+          <x14:formula1>
+            <xm:f>Заключение!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E41:J42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8986417D-9FB2-4AEE-BB65-0238903A5F20}">
+          <x14:formula1>
+            <xm:f>Заключение!$C$1:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E43:J44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{218C530A-764D-45CD-9D1D-850B8F11186D}">
+          <x14:formula1>
+            <xm:f>Заключение!$D$1:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E45:J46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9381A0EF-C847-4870-A727-D52E738A70A5}">
+          <x14:formula1>
+            <xm:f>Заключение!$E$1:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E47:J48</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -6681,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4B0687-7559-4E00-8A35-280344DCE62A}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,11 +7023,11 @@
       <c r="A7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7018,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC21A1B7-F6F3-4B50-BF48-F45C38D073B8}">
   <dimension ref="B1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P54" sqref="P53:P54"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7037,492 +7062,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
     </row>
     <row r="2" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
     </row>
     <row r="3" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
     </row>
     <row r="5" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
     </row>
     <row r="7" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
     </row>
     <row r="8" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="188"/>
     </row>
     <row r="9" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
     </row>
     <row r="10" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="188"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="188"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="188"/>
+      <c r="O24" s="188"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="188"/>
+      <c r="O25" s="188"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="180"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
     </row>
@@ -7545,17 +7570,17 @@
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
@@ -7565,416 +7590,416 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="188"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="188"/>
+      <c r="O33" s="188"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="188"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="180"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="188"/>
+      <c r="O35" s="188"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="181"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="181"/>
-      <c r="M37" s="181"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188"/>
+      <c r="O38" s="188"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="181"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="181"/>
-      <c r="M40" s="181"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="181"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
       <c r="P40" s="33"/>
       <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="180"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="181"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="188"/>
+      <c r="O42" s="188"/>
       <c r="P42" s="33"/>
       <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="180"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="181"/>
-      <c r="M43" s="181"/>
-      <c r="N43" s="181"/>
-      <c r="O43" s="181"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="188"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="181"/>
-      <c r="M44" s="181"/>
-      <c r="N44" s="181"/>
-      <c r="O44" s="181"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
       <c r="P44" s="33"/>
       <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="181"/>
-      <c r="N45" s="181"/>
-      <c r="O45" s="181"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="188"/>
+      <c r="K45" s="188"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="188"/>
+      <c r="O45" s="188"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33"/>
     </row>
     <row r="46" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="181"/>
-      <c r="M46" s="181"/>
-      <c r="N46" s="181"/>
-      <c r="O46" s="181"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="188"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
       <c r="P46" s="33"/>
       <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="180"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="181"/>
-      <c r="M47" s="181"/>
-      <c r="N47" s="181"/>
-      <c r="O47" s="181"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="188"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="188"/>
+      <c r="M47" s="188"/>
+      <c r="N47" s="188"/>
+      <c r="O47" s="188"/>
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="181"/>
-      <c r="I48" s="181"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
-      <c r="L48" s="181"/>
-      <c r="M48" s="181"/>
-      <c r="N48" s="181"/>
-      <c r="O48" s="181"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="188"/>
+      <c r="O48" s="188"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="181"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="181"/>
-      <c r="M49" s="181"/>
-      <c r="N49" s="181"/>
-      <c r="O49" s="181"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="188"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181"/>
-      <c r="O50" s="181"/>
+      <c r="B50" s="187"/>
+      <c r="C50" s="188"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="188"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="188"/>
+      <c r="L50" s="188"/>
+      <c r="M50" s="188"/>
+      <c r="N50" s="188"/>
+      <c r="O50" s="188"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="180"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="181"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="181"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="181"/>
-      <c r="M51" s="181"/>
-      <c r="N51" s="181"/>
-      <c r="O51" s="181"/>
+      <c r="B51" s="187"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="188"/>
+      <c r="O51" s="188"/>
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="180"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="181"/>
-      <c r="M52" s="181"/>
-      <c r="N52" s="181"/>
-      <c r="O52" s="181"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="188"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="188"/>
+      <c r="O52" s="188"/>
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="180"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="181"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="181"/>
-      <c r="L53" s="181"/>
-      <c r="M53" s="181"/>
-      <c r="N53" s="181"/>
-      <c r="O53" s="181"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="188"/>
+      <c r="O53" s="188"/>
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
     </row>
@@ -7997,17 +8022,17 @@
       <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="172" t="s">
+      <c r="B55" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="172"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="179"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
@@ -8017,428 +8042,428 @@
       <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="181"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="181"/>
-      <c r="M56" s="181"/>
-      <c r="N56" s="181"/>
-      <c r="O56" s="181"/>
+      <c r="B56" s="187"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="188"/>
+      <c r="K56" s="188"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="188"/>
+      <c r="O56" s="188"/>
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="180"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="181"/>
-      <c r="G57" s="181"/>
-      <c r="H57" s="181"/>
-      <c r="I57" s="181"/>
-      <c r="J57" s="181"/>
-      <c r="K57" s="181"/>
-      <c r="L57" s="181"/>
-      <c r="M57" s="181"/>
-      <c r="N57" s="181"/>
-      <c r="O57" s="181"/>
+      <c r="B57" s="187"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="188"/>
+      <c r="O57" s="188"/>
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="180"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="181"/>
-      <c r="G58" s="181"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="181"/>
-      <c r="J58" s="181"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="181"/>
-      <c r="M58" s="181"/>
-      <c r="N58" s="181"/>
-      <c r="O58" s="181"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="188"/>
+      <c r="J58" s="188"/>
+      <c r="K58" s="188"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="188"/>
+      <c r="N58" s="188"/>
+      <c r="O58" s="188"/>
       <c r="P58" s="33"/>
       <c r="Q58" s="33"/>
     </row>
     <row r="59" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="181"/>
-      <c r="J59" s="181"/>
-      <c r="K59" s="181"/>
-      <c r="L59" s="181"/>
-      <c r="M59" s="181"/>
-      <c r="N59" s="181"/>
-      <c r="O59" s="181"/>
+      <c r="B59" s="187"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="188"/>
+      <c r="E59" s="188"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="188"/>
+      <c r="I59" s="188"/>
+      <c r="J59" s="188"/>
+      <c r="K59" s="188"/>
+      <c r="L59" s="188"/>
+      <c r="M59" s="188"/>
+      <c r="N59" s="188"/>
+      <c r="O59" s="188"/>
       <c r="P59" s="33"/>
       <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="180"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
-      <c r="E60" s="181"/>
-      <c r="F60" s="181"/>
-      <c r="G60" s="181"/>
-      <c r="H60" s="181"/>
-      <c r="I60" s="181"/>
-      <c r="J60" s="181"/>
-      <c r="K60" s="181"/>
-      <c r="L60" s="181"/>
-      <c r="M60" s="181"/>
-      <c r="N60" s="181"/>
-      <c r="O60" s="181"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="188"/>
+      <c r="K60" s="188"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="188"/>
+      <c r="O60" s="188"/>
       <c r="P60" s="33"/>
       <c r="Q60" s="33"/>
     </row>
     <row r="61" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="180"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="181"/>
-      <c r="K61" s="181"/>
-      <c r="L61" s="181"/>
-      <c r="M61" s="181"/>
-      <c r="N61" s="181"/>
-      <c r="O61" s="181"/>
+      <c r="B61" s="187"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="188"/>
+      <c r="K61" s="188"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="188"/>
+      <c r="O61" s="188"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
     </row>
     <row r="62" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="180"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
-      <c r="H62" s="181"/>
-      <c r="I62" s="181"/>
-      <c r="J62" s="181"/>
-      <c r="K62" s="181"/>
-      <c r="L62" s="181"/>
-      <c r="M62" s="181"/>
-      <c r="N62" s="181"/>
-      <c r="O62" s="181"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="188"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="188"/>
+      <c r="F62" s="188"/>
+      <c r="G62" s="188"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="188"/>
+      <c r="K62" s="188"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="188"/>
+      <c r="O62" s="188"/>
       <c r="P62" s="33"/>
       <c r="Q62" s="33"/>
     </row>
     <row r="63" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="180"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="181"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="181"/>
-      <c r="M63" s="181"/>
-      <c r="N63" s="181"/>
-      <c r="O63" s="181"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="188"/>
+      <c r="F63" s="188"/>
+      <c r="G63" s="188"/>
+      <c r="H63" s="188"/>
+      <c r="I63" s="188"/>
+      <c r="J63" s="188"/>
+      <c r="K63" s="188"/>
+      <c r="L63" s="188"/>
+      <c r="M63" s="188"/>
+      <c r="N63" s="188"/>
+      <c r="O63" s="188"/>
       <c r="P63" s="33"/>
       <c r="Q63" s="33"/>
     </row>
     <row r="64" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="180"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="181"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="181"/>
-      <c r="M64" s="181"/>
-      <c r="N64" s="181"/>
-      <c r="O64" s="181"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="188"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="188"/>
+      <c r="K64" s="188"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="188"/>
+      <c r="O64" s="188"/>
       <c r="P64" s="33"/>
       <c r="Q64" s="33"/>
     </row>
     <row r="65" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="180"/>
-      <c r="C65" s="181"/>
-      <c r="D65" s="181"/>
-      <c r="E65" s="181"/>
-      <c r="F65" s="181"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="181"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="181"/>
-      <c r="M65" s="181"/>
-      <c r="N65" s="181"/>
-      <c r="O65" s="181"/>
+      <c r="B65" s="187"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="188"/>
+      <c r="F65" s="188"/>
+      <c r="G65" s="188"/>
+      <c r="H65" s="188"/>
+      <c r="I65" s="188"/>
+      <c r="J65" s="188"/>
+      <c r="K65" s="188"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="188"/>
+      <c r="O65" s="188"/>
       <c r="P65" s="33"/>
       <c r="Q65" s="33"/>
     </row>
     <row r="66" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="181"/>
-      <c r="I66" s="181"/>
-      <c r="J66" s="181"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="181"/>
-      <c r="M66" s="181"/>
-      <c r="N66" s="181"/>
-      <c r="O66" s="181"/>
+      <c r="B66" s="187"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="188"/>
+      <c r="E66" s="188"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="188"/>
+      <c r="J66" s="188"/>
+      <c r="K66" s="188"/>
+      <c r="L66" s="188"/>
+      <c r="M66" s="188"/>
+      <c r="N66" s="188"/>
+      <c r="O66" s="188"/>
       <c r="P66" s="33"/>
       <c r="Q66" s="33"/>
     </row>
     <row r="67" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="180"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
-      <c r="E67" s="181"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="181"/>
-      <c r="I67" s="181"/>
-      <c r="J67" s="181"/>
-      <c r="K67" s="181"/>
-      <c r="L67" s="181"/>
-      <c r="M67" s="181"/>
-      <c r="N67" s="181"/>
-      <c r="O67" s="181"/>
+      <c r="B67" s="187"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="188"/>
+      <c r="E67" s="188"/>
+      <c r="F67" s="188"/>
+      <c r="G67" s="188"/>
+      <c r="H67" s="188"/>
+      <c r="I67" s="188"/>
+      <c r="J67" s="188"/>
+      <c r="K67" s="188"/>
+      <c r="L67" s="188"/>
+      <c r="M67" s="188"/>
+      <c r="N67" s="188"/>
+      <c r="O67" s="188"/>
       <c r="P67" s="33"/>
       <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="181"/>
-      <c r="G68" s="181"/>
-      <c r="H68" s="181"/>
-      <c r="I68" s="181"/>
-      <c r="J68" s="181"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="181"/>
-      <c r="M68" s="181"/>
-      <c r="N68" s="181"/>
-      <c r="O68" s="181"/>
+      <c r="B68" s="187"/>
+      <c r="C68" s="188"/>
+      <c r="D68" s="188"/>
+      <c r="E68" s="188"/>
+      <c r="F68" s="188"/>
+      <c r="G68" s="188"/>
+      <c r="H68" s="188"/>
+      <c r="I68" s="188"/>
+      <c r="J68" s="188"/>
+      <c r="K68" s="188"/>
+      <c r="L68" s="188"/>
+      <c r="M68" s="188"/>
+      <c r="N68" s="188"/>
+      <c r="O68" s="188"/>
       <c r="P68" s="33"/>
       <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="180"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="181"/>
-      <c r="M69" s="181"/>
-      <c r="N69" s="181"/>
-      <c r="O69" s="181"/>
+      <c r="B69" s="187"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="188"/>
+      <c r="F69" s="188"/>
+      <c r="G69" s="188"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="188"/>
+      <c r="J69" s="188"/>
+      <c r="K69" s="188"/>
+      <c r="L69" s="188"/>
+      <c r="M69" s="188"/>
+      <c r="N69" s="188"/>
+      <c r="O69" s="188"/>
       <c r="P69" s="33"/>
       <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="180"/>
-      <c r="C70" s="181"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="181"/>
-      <c r="H70" s="181"/>
-      <c r="I70" s="181"/>
-      <c r="J70" s="181"/>
-      <c r="K70" s="181"/>
-      <c r="L70" s="181"/>
-      <c r="M70" s="181"/>
-      <c r="N70" s="181"/>
-      <c r="O70" s="181"/>
+      <c r="B70" s="187"/>
+      <c r="C70" s="188"/>
+      <c r="D70" s="188"/>
+      <c r="E70" s="188"/>
+      <c r="F70" s="188"/>
+      <c r="G70" s="188"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="188"/>
+      <c r="J70" s="188"/>
+      <c r="K70" s="188"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="188"/>
+      <c r="O70" s="188"/>
       <c r="P70" s="33"/>
       <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="180"/>
-      <c r="C71" s="181"/>
-      <c r="D71" s="181"/>
-      <c r="E71" s="181"/>
-      <c r="F71" s="181"/>
-      <c r="G71" s="181"/>
-      <c r="H71" s="181"/>
-      <c r="I71" s="181"/>
-      <c r="J71" s="181"/>
-      <c r="K71" s="181"/>
-      <c r="L71" s="181"/>
-      <c r="M71" s="181"/>
-      <c r="N71" s="181"/>
-      <c r="O71" s="181"/>
+      <c r="B71" s="187"/>
+      <c r="C71" s="188"/>
+      <c r="D71" s="188"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
+      <c r="K71" s="188"/>
+      <c r="L71" s="188"/>
+      <c r="M71" s="188"/>
+      <c r="N71" s="188"/>
+      <c r="O71" s="188"/>
       <c r="P71" s="33"/>
       <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="180"/>
-      <c r="C72" s="181"/>
-      <c r="D72" s="181"/>
-      <c r="E72" s="181"/>
-      <c r="F72" s="181"/>
-      <c r="G72" s="181"/>
-      <c r="H72" s="181"/>
-      <c r="I72" s="181"/>
-      <c r="J72" s="181"/>
-      <c r="K72" s="181"/>
-      <c r="L72" s="181"/>
-      <c r="M72" s="181"/>
-      <c r="N72" s="181"/>
-      <c r="O72" s="181"/>
+      <c r="B72" s="187"/>
+      <c r="C72" s="188"/>
+      <c r="D72" s="188"/>
+      <c r="E72" s="188"/>
+      <c r="F72" s="188"/>
+      <c r="G72" s="188"/>
+      <c r="H72" s="188"/>
+      <c r="I72" s="188"/>
+      <c r="J72" s="188"/>
+      <c r="K72" s="188"/>
+      <c r="L72" s="188"/>
+      <c r="M72" s="188"/>
+      <c r="N72" s="188"/>
+      <c r="O72" s="188"/>
       <c r="P72" s="33"/>
       <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="180"/>
-      <c r="C73" s="181"/>
-      <c r="D73" s="181"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="181"/>
-      <c r="G73" s="181"/>
-      <c r="H73" s="181"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="181"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="181"/>
-      <c r="M73" s="181"/>
-      <c r="N73" s="181"/>
-      <c r="O73" s="181"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="188"/>
+      <c r="F73" s="188"/>
+      <c r="G73" s="188"/>
+      <c r="H73" s="188"/>
+      <c r="I73" s="188"/>
+      <c r="J73" s="188"/>
+      <c r="K73" s="188"/>
+      <c r="L73" s="188"/>
+      <c r="M73" s="188"/>
+      <c r="N73" s="188"/>
+      <c r="O73" s="188"/>
       <c r="P73" s="33"/>
       <c r="Q73" s="33"/>
     </row>
     <row r="74" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="180"/>
-      <c r="C74" s="181"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="181"/>
-      <c r="F74" s="181"/>
-      <c r="G74" s="181"/>
-      <c r="H74" s="181"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="181"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="181"/>
-      <c r="M74" s="181"/>
-      <c r="N74" s="181"/>
-      <c r="O74" s="181"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="188"/>
+      <c r="D74" s="188"/>
+      <c r="E74" s="188"/>
+      <c r="F74" s="188"/>
+      <c r="G74" s="188"/>
+      <c r="H74" s="188"/>
+      <c r="I74" s="188"/>
+      <c r="J74" s="188"/>
+      <c r="K74" s="188"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="188"/>
+      <c r="O74" s="188"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
     </row>
     <row r="75" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="180"/>
-      <c r="C75" s="181"/>
-      <c r="D75" s="181"/>
-      <c r="E75" s="181"/>
-      <c r="F75" s="181"/>
-      <c r="G75" s="181"/>
-      <c r="H75" s="181"/>
-      <c r="I75" s="181"/>
-      <c r="J75" s="181"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="181"/>
-      <c r="M75" s="181"/>
-      <c r="N75" s="181"/>
-      <c r="O75" s="181"/>
+      <c r="B75" s="187"/>
+      <c r="C75" s="188"/>
+      <c r="D75" s="188"/>
+      <c r="E75" s="188"/>
+      <c r="F75" s="188"/>
+      <c r="G75" s="188"/>
+      <c r="H75" s="188"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="188"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="188"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="188"/>
+      <c r="O75" s="188"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
     </row>
     <row r="76" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="180"/>
-      <c r="C76" s="181"/>
-      <c r="D76" s="181"/>
-      <c r="E76" s="181"/>
-      <c r="F76" s="181"/>
-      <c r="G76" s="181"/>
-      <c r="H76" s="181"/>
-      <c r="I76" s="181"/>
-      <c r="J76" s="181"/>
-      <c r="K76" s="181"/>
-      <c r="L76" s="181"/>
-      <c r="M76" s="181"/>
-      <c r="N76" s="181"/>
-      <c r="O76" s="181"/>
+      <c r="B76" s="187"/>
+      <c r="C76" s="188"/>
+      <c r="D76" s="188"/>
+      <c r="E76" s="188"/>
+      <c r="F76" s="188"/>
+      <c r="G76" s="188"/>
+      <c r="H76" s="188"/>
+      <c r="I76" s="188"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="188"/>
+      <c r="O76" s="188"/>
       <c r="P76" s="33"/>
       <c r="Q76" s="33"/>
     </row>
     <row r="77" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="180"/>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
-      <c r="E77" s="181"/>
-      <c r="F77" s="181"/>
-      <c r="G77" s="181"/>
-      <c r="H77" s="181"/>
-      <c r="I77" s="181"/>
-      <c r="J77" s="181"/>
-      <c r="K77" s="181"/>
-      <c r="L77" s="181"/>
-      <c r="M77" s="181"/>
-      <c r="N77" s="181"/>
-      <c r="O77" s="181"/>
+      <c r="B77" s="187"/>
+      <c r="C77" s="188"/>
+      <c r="D77" s="188"/>
+      <c r="E77" s="188"/>
+      <c r="F77" s="188"/>
+      <c r="G77" s="188"/>
+      <c r="H77" s="188"/>
+      <c r="I77" s="188"/>
+      <c r="J77" s="188"/>
+      <c r="K77" s="188"/>
+      <c r="L77" s="188"/>
+      <c r="M77" s="188"/>
+      <c r="N77" s="188"/>
+      <c r="O77" s="188"/>
       <c r="P77" s="33"/>
       <c r="Q77" s="33"/>
     </row>
     <row r="78" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="180"/>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
-      <c r="E78" s="181"/>
-      <c r="F78" s="181"/>
-      <c r="G78" s="181"/>
-      <c r="H78" s="181"/>
-      <c r="I78" s="181"/>
-      <c r="J78" s="181"/>
-      <c r="K78" s="181"/>
-      <c r="L78" s="181"/>
-      <c r="M78" s="181"/>
-      <c r="N78" s="181"/>
-      <c r="O78" s="181"/>
+      <c r="B78" s="187"/>
+      <c r="C78" s="188"/>
+      <c r="D78" s="188"/>
+      <c r="E78" s="188"/>
+      <c r="F78" s="188"/>
+      <c r="G78" s="188"/>
+      <c r="H78" s="188"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="188"/>
+      <c r="K78" s="188"/>
+      <c r="L78" s="188"/>
+      <c r="M78" s="188"/>
+      <c r="N78" s="188"/>
+      <c r="O78" s="188"/>
       <c r="P78" s="33"/>
       <c r="Q78" s="33"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="182" t="s">
+      <c r="B79" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="182"/>
-      <c r="D79" s="182"/>
-      <c r="E79" s="182"/>
-      <c r="F79" s="182"/>
-      <c r="G79" s="182"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="189"/>
+      <c r="E79" s="189"/>
+      <c r="F79" s="189"/>
+      <c r="G79" s="189"/>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
       <c r="J79" s="33"/>
@@ -8451,22 +8476,22 @@
       <c r="Q79" s="33"/>
     </row>
     <row r="80" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="182"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
-      <c r="E80" s="182"/>
-      <c r="F80" s="182"/>
-      <c r="G80" s="182"/>
+      <c r="B80" s="189"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="189"/>
+      <c r="F80" s="189"/>
+      <c r="G80" s="189"/>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
       <c r="K80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L80" s="183"/>
-      <c r="M80" s="183"/>
-      <c r="N80" s="183"/>
-      <c r="O80" s="183"/>
+      <c r="L80" s="190"/>
+      <c r="M80" s="190"/>
+      <c r="N80" s="190"/>
+      <c r="O80" s="190"/>
       <c r="P80" s="33"/>
       <c r="Q80" s="2"/>
     </row>
